--- a/hw1/giladsol/Ass-1 Tables.xlsx
+++ b/hw1/giladsol/Ass-1 Tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Q1" sheetId="1" r:id="rId1"/>
@@ -187,7 +187,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -196,176 +196,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -523,158 +353,150 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -981,429 +803,429 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="32"/>
-    <col min="2" max="2" width="9.19921875" style="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.8984375" style="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.59765625" style="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.8984375" style="32" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.8984375" style="32" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.8984375" style="32" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.59765625" style="32" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.8984375" style="32" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.8984375" style="32" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7" style="32" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.8984375" style="32" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.59765625" style="32" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.8984375" style="32" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.8984375" style="32" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.3984375" style="32" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.8984375" style="32" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.796875" style="32"/>
+    <col min="1" max="1" width="8.796875" style="7"/>
+    <col min="2" max="2" width="9.19921875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.8984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.59765625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.8984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.8984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.8984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.59765625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.8984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.8984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.8984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.59765625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.8984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.8984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.3984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.8984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.796875" style="7"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:19" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="32">
+      <c r="E2" s="7">
         <v>0.4</v>
       </c>
-      <c r="J2" s="32">
+      <c r="J2" s="7">
         <v>0.35</v>
       </c>
-      <c r="O2" s="32">
+      <c r="O2" s="7">
         <v>0.25</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
-      <c r="B3" s="57" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="45" t="s">
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="45" t="s">
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="37"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="13"/>
     </row>
     <row r="4" spans="1:19" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="48" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="49" t="s">
+      <c r="G4" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="48" t="s">
+      <c r="H4" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="39" t="s">
+      <c r="I4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="39" t="s">
+      <c r="J4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="39" t="s">
+      <c r="K4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="49" t="s">
+      <c r="L4" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="48" t="s">
+      <c r="M4" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="39" t="s">
+      <c r="N4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="O4" s="39" t="s">
+      <c r="O4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="39" t="s">
+      <c r="P4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="49" t="s">
+      <c r="Q4" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="R4" s="43" t="s">
+      <c r="R4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="S4" s="38" t="s">
+      <c r="S4" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
-      <c r="B5" s="58" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="50">
+      <c r="C5" s="26">
         <v>23.87</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="50">
+      <c r="D5" s="1"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="26">
         <v>84.65</v>
       </c>
-      <c r="I5" s="30"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="50">
+      <c r="I5" s="1"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="26">
         <v>33.200000000000003</v>
       </c>
-      <c r="N5" s="30"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="51"/>
-      <c r="R5" s="60"/>
-      <c r="S5" s="35">
+      <c r="N5" s="1"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="11">
         <v>670980000</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="61">
+      <c r="A6" s="10"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="37">
         <v>11243904</v>
       </c>
-      <c r="F6" s="40">
+      <c r="F6" s="16">
         <f>E6*C5</f>
         <v>268391988.48000002</v>
       </c>
-      <c r="G6" s="53"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="61">
+      <c r="G6" s="29"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="37">
         <v>2774282</v>
       </c>
-      <c r="K6" s="40">
+      <c r="K6" s="16">
         <f>J6*H5</f>
         <v>234842971.30000001</v>
       </c>
-      <c r="L6" s="53"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="61">
+      <c r="L6" s="29"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="37">
         <v>5052560</v>
       </c>
-      <c r="P6" s="40">
+      <c r="P6" s="16">
         <f>M5*O6</f>
         <v>167744992</v>
       </c>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="44">
+      <c r="Q6" s="29"/>
+      <c r="R6" s="20">
         <f>S5-(P6+K6+F6)</f>
         <v>48.220000028610229</v>
       </c>
-      <c r="S6" s="40">
+      <c r="S6" s="16">
         <f>P6+R6+K6+F6</f>
         <v>670980000</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
-      <c r="B7" s="58" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="50">
+      <c r="C7" s="26">
         <f>C5*(1+D7)</f>
         <v>24.428558000000002</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="1">
         <v>2.3400000000000001E-2</v>
       </c>
-      <c r="E7" s="62">
+      <c r="E7" s="38">
         <f>E6-G6</f>
         <v>11243904</v>
       </c>
-      <c r="F7" s="35">
+      <c r="F7" s="11">
         <f>C7*E7</f>
         <v>274672361.010432</v>
       </c>
-      <c r="G7" s="51">
+      <c r="G7" s="27">
         <f>E7 - FLOOR((E2*$S$7)/C7,1)</f>
         <v>168757</v>
       </c>
-      <c r="H7" s="50">
+      <c r="H7" s="26">
         <f>H5*(1+I7)</f>
         <v>86.114445000000018</v>
       </c>
-      <c r="I7" s="30">
+      <c r="I7" s="1">
         <v>1.7299999999999999E-2</v>
       </c>
-      <c r="J7" s="62">
+      <c r="J7" s="38">
         <f>J6-L6</f>
         <v>2774282</v>
       </c>
-      <c r="K7" s="35">
+      <c r="K7" s="11">
         <f>J7*H7</f>
         <v>238905754.70349005</v>
       </c>
-      <c r="L7" s="51">
+      <c r="L7" s="27">
         <f>J7 - FLOOR((J2*$S$7)/H7,1)</f>
         <v>25253</v>
       </c>
-      <c r="M7" s="50">
+      <c r="M7" s="26">
         <f>M5*(1+N7)</f>
         <v>32.220600000000005</v>
       </c>
-      <c r="N7" s="30">
+      <c r="N7" s="1">
         <v>-2.9499999999999998E-2</v>
       </c>
-      <c r="O7" s="62">
+      <c r="O7" s="38">
         <f>O6-Q6</f>
         <v>5052560</v>
       </c>
-      <c r="P7" s="35">
+      <c r="P7" s="11">
         <f>M7*O7</f>
         <v>162796514.73600003</v>
       </c>
-      <c r="Q7" s="51">
+      <c r="Q7" s="27">
         <f>O7 - FLOOR((O2*$S$7)/M7,1)</f>
         <v>-195438</v>
       </c>
-      <c r="R7" s="60">
+      <c r="R7" s="36">
         <v>48.220000028610229</v>
       </c>
-      <c r="S7" s="35">
+      <c r="S7" s="11">
         <f t="shared" ref="S7:S10" si="0">P7+R7+K7+F7</f>
         <v>676374678.66992211</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
-      <c r="B8" s="59"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="61">
+      <c r="A8" s="10"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="37">
         <f>E7-G7</f>
         <v>11075147</v>
       </c>
-      <c r="F8" s="40">
+      <c r="F8" s="16">
         <f>C7*E8</f>
         <v>270549870.84802604</v>
       </c>
-      <c r="G8" s="53"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="61">
+      <c r="G8" s="29"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="37">
         <f>J7-L7</f>
         <v>2749029</v>
       </c>
-      <c r="K8" s="40">
+      <c r="K8" s="16">
         <f>H7*J8</f>
         <v>236731106.62390506</v>
       </c>
-      <c r="L8" s="53"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="61">
+      <c r="L8" s="29"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="37">
         <f>O7-Q7</f>
         <v>5247998</v>
       </c>
-      <c r="P8" s="40">
+      <c r="P8" s="16">
         <f>M7*O8</f>
         <v>169093644.35880002</v>
       </c>
-      <c r="Q8" s="53"/>
-      <c r="R8" s="44">
+      <c r="Q8" s="29"/>
+      <c r="R8" s="20">
         <f>S7-P8-K8-F8</f>
         <v>56.83919095993042</v>
       </c>
-      <c r="S8" s="40">
+      <c r="S8" s="16">
         <f t="shared" si="0"/>
         <v>676374678.66992211</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
-      <c r="B9" s="58" t="s">
+      <c r="A9" s="10"/>
+      <c r="B9" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="50">
+      <c r="C9" s="26">
         <f t="shared" ref="C8:C9" si="1">C7*(1+D9)</f>
         <v>23.378130006000003</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9" s="1">
         <v>-4.2999999999999997E-2</v>
       </c>
-      <c r="E9" s="62">
+      <c r="E9" s="38">
         <f>E8</f>
         <v>11075147</v>
       </c>
-      <c r="F9" s="35">
+      <c r="F9" s="11">
         <f>C9*E9</f>
         <v>258916226.4015609</v>
       </c>
-      <c r="G9" s="51">
+      <c r="G9" s="27">
         <f>E9 - FLOOR((E2*$S$9)/C9,1)</f>
         <v>-387630</v>
       </c>
-      <c r="H9" s="50">
+      <c r="H9" s="26">
         <f>H7*(1+I9)</f>
         <v>87.208098451500007</v>
       </c>
-      <c r="I9" s="30">
+      <c r="I9" s="1">
         <v>1.2699999999999999E-2</v>
       </c>
-      <c r="J9" s="62">
+      <c r="J9" s="38">
         <f>J8</f>
         <v>2749029</v>
       </c>
-      <c r="K9" s="35">
+      <c r="K9" s="11">
         <f>J9*H9</f>
         <v>239737591.67802861</v>
       </c>
-      <c r="L9" s="51">
+      <c r="L9" s="27">
         <f>J9 - FLOOR((J2*$S$9)/H9,1)</f>
         <v>60277</v>
       </c>
-      <c r="M9" s="50">
+      <c r="M9" s="26">
         <f>M7*(1+N9)</f>
         <v>32.639467799999998</v>
       </c>
-      <c r="N9" s="30">
+      <c r="N9" s="1">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="O9" s="62">
+      <c r="O9" s="38">
         <f>O8</f>
         <v>5247998</v>
       </c>
-      <c r="P9" s="35">
+      <c r="P9" s="11">
         <f>M9*O9</f>
         <v>171291861.73546439</v>
       </c>
-      <c r="Q9" s="51">
+      <c r="Q9" s="27">
         <f>O9 - FLOOR((O2*$S$9)/M9,1)</f>
         <v>116590</v>
       </c>
-      <c r="R9" s="60">
+      <c r="R9" s="36">
         <f>R8</f>
         <v>56.83919095993042</v>
       </c>
-      <c r="S9" s="35">
+      <c r="S9" s="11">
         <f t="shared" si="0"/>
         <v>669945736.6542449</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="36"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="61">
+      <c r="A10" s="12"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="37">
         <f>E9-G9</f>
         <v>11462777</v>
       </c>
-      <c r="F10" s="40">
+      <c r="F10" s="16">
         <f>C9*E10</f>
         <v>267978290.93578669</v>
       </c>
-      <c r="G10" s="56"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="61">
+      <c r="G10" s="32"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="37">
         <f>J9-L9</f>
         <v>2688752</v>
       </c>
-      <c r="K10" s="40">
+      <c r="K10" s="16">
         <f>H9*J10</f>
         <v>234480949.12766755</v>
       </c>
-      <c r="L10" s="56"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="61">
+      <c r="L10" s="32"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="37">
         <f>O9-Q9</f>
         <v>5131408</v>
       </c>
-      <c r="P10" s="40">
+      <c r="P10" s="16">
         <f>M9*O10</f>
         <v>167486426.1846624</v>
       </c>
-      <c r="Q10" s="56"/>
-      <c r="R10" s="44">
+      <c r="Q10" s="32"/>
+      <c r="R10" s="20">
         <f>S9-P10-K10-F10</f>
         <v>70.406128257513046</v>
       </c>
-      <c r="S10" s="40">
+      <c r="S10" s="16">
         <f t="shared" si="0"/>
         <v>669945736.6542449</v>
       </c>
@@ -1423,222 +1245,305 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:N13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.69921875" customWidth="1"/>
-    <col min="3" max="3" width="11.59765625" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" customWidth="1"/>
-    <col min="7" max="7" width="11.69921875" customWidth="1"/>
-    <col min="9" max="9" width="12.09765625" customWidth="1"/>
-    <col min="11" max="11" width="11" customWidth="1"/>
-    <col min="13" max="13" width="14" customWidth="1"/>
+    <col min="1" max="1" width="8.796875" style="7"/>
+    <col min="2" max="2" width="13.69921875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="11.59765625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="8.796875" style="7"/>
+    <col min="5" max="5" width="11.59765625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="8.796875" style="7"/>
+    <col min="7" max="7" width="11.69921875" style="7" customWidth="1"/>
+    <col min="8" max="8" width="10.8984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.09765625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="8.796875" style="7"/>
+    <col min="11" max="11" width="11" style="7" customWidth="1"/>
+    <col min="12" max="12" width="8.796875" style="7"/>
+    <col min="13" max="13" width="14" style="7" customWidth="1"/>
+    <col min="14" max="16384" width="8.796875" style="7"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:14" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="5" t="s">
+      <c r="D4" s="43"/>
+      <c r="E4" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="5" t="s">
+      <c r="F4" s="43"/>
+      <c r="G4" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="5" t="s">
+      <c r="H4" s="43"/>
+      <c r="I4" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="6"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="2"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:14" ht="64.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="7" t="s">
+    <row r="5" spans="1:14" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="45">
         <v>7500000</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10">
+      <c r="D5" s="45"/>
+      <c r="E5" s="45">
         <v>9000000</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10">
+      <c r="F5" s="45"/>
+      <c r="G5" s="45">
         <v>6500000</v>
       </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="10">
+      <c r="H5" s="45"/>
+      <c r="I5" s="45">
         <v>2500000</v>
       </c>
-      <c r="J5" s="11"/>
-      <c r="K5" s="12" t="s">
+      <c r="J5" s="46"/>
+      <c r="K5" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="13"/>
-      <c r="M5" s="12" t="s">
+      <c r="L5" s="47"/>
+      <c r="M5" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="14"/>
-    </row>
-    <row r="6" spans="1:14" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="15"/>
-      <c r="C6" s="16" t="s">
+      <c r="N5" s="2"/>
+    </row>
+    <row r="6" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B6" s="46"/>
+      <c r="C6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="19" t="s">
+      <c r="J6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="18" t="s">
+      <c r="K6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L6" s="17" t="s">
+      <c r="L6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="18" t="s">
+      <c r="M6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="N6" s="19" t="s">
+      <c r="N6" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="20" t="s">
+    <row r="7" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="1">
         <v>80</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="21">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1">
         <v>85</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="21">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1">
         <v>25</v>
       </c>
-      <c r="H7" s="22"/>
-      <c r="I7" s="21">
+      <c r="H7" s="1"/>
+      <c r="I7" s="1">
         <v>30</v>
       </c>
-      <c r="J7" s="23"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="24">
+      <c r="J7" s="1"/>
+      <c r="K7" s="39">
+        <f>AVERAGE(I7,G7,E7,C7)</f>
+        <v>55</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="M7" s="39">
         <v>100</v>
       </c>
-      <c r="N7" s="3"/>
-    </row>
-    <row r="8" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B8" s="25" t="s">
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="26">
+      <c r="C8" s="2">
+        <f>C7*(1+D8)</f>
+        <v>88</v>
+      </c>
+      <c r="D8" s="4">
         <v>0.1</v>
       </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="27">
+      <c r="E8" s="2">
+        <f>E7*(1+F8)</f>
+        <v>85</v>
+      </c>
+      <c r="F8" s="4">
         <v>0</v>
       </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="27">
+      <c r="G8" s="2">
+        <f>G7*(1+H8)</f>
+        <v>25</v>
+      </c>
+      <c r="H8" s="4">
         <v>0</v>
       </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="27">
+      <c r="I8" s="2">
+        <f>I7*(1+J8)</f>
+        <v>30</v>
+      </c>
+      <c r="J8" s="4">
         <v>0</v>
       </c>
-      <c r="K8" s="24"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="26"/>
-    </row>
-    <row r="9" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="25" t="s">
+      <c r="K8" s="40">
+        <f>AVERAGE(I8,G8,E8,C8)</f>
+        <v>57</v>
+      </c>
+      <c r="L8" s="4">
+        <f>K8/K7 - 1</f>
+        <v>3.6363636363636376E-2</v>
+      </c>
+      <c r="M8" s="40">
+        <f>($C$5*$C8+$E$5*$E8+$G$5*$G8+$I$5*$I8)/($C$7*$C$5+$E$7*$E$5+$G$7*$G$5+$I$7*$I$5)*100</f>
+        <v>103.74414976599064</v>
+      </c>
+      <c r="N8" s="4">
+        <f>M8/M7-1</f>
+        <v>3.7441497659906453E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B9" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="26">
+      <c r="C9" s="1">
+        <f t="shared" ref="C9:C10" si="0">C8*(1+D9)</f>
+        <v>88</v>
+      </c>
+      <c r="D9" s="1">
         <v>0</v>
       </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="26">
+      <c r="E9" s="1">
+        <f t="shared" ref="E9:E10" si="1">E8*(1+F9)</f>
+        <v>85</v>
+      </c>
+      <c r="F9" s="1">
         <v>0</v>
       </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="26">
+      <c r="G9" s="1">
+        <f t="shared" ref="G9:G10" si="2">G8*(1+H9)</f>
+        <v>25</v>
+      </c>
+      <c r="H9" s="1">
         <v>0</v>
       </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="27">
+      <c r="I9" s="1">
+        <f t="shared" ref="I9:I10" si="3">I8*(1+J9)</f>
+        <v>33</v>
+      </c>
+      <c r="J9" s="1">
         <v>0.1</v>
       </c>
-      <c r="K9" s="24"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="26"/>
-    </row>
-    <row r="10" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B10" s="25" t="s">
+      <c r="K9" s="39">
+        <f t="shared" ref="K9:K10" si="4">AVERAGE(I9,G9,E9,C9)</f>
+        <v>57.75</v>
+      </c>
+      <c r="L9" s="3">
+        <f t="shared" ref="L9:L10" si="5">K9/K8 - 1</f>
+        <v>1.3157894736842035E-2</v>
+      </c>
+      <c r="M9" s="39">
+        <f t="shared" ref="M9:M10" si="6">($C$5*$C9+$E$5*$E9+$G$5*$G9+$I$5*$I9)/($C$7*$C$5+$E$7*$E$5+$G$7*$G$5+$I$7*$I$5)*100</f>
+        <v>104.21216848673947</v>
+      </c>
+      <c r="N9" s="3">
+        <f t="shared" ref="N9:N10" si="7">M9/M8-1</f>
+        <v>4.5112781954887993E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="26">
+      <c r="C10" s="2">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="D10" s="4">
         <v>0</v>
       </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="26">
+      <c r="E10" s="2">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="F10" s="4">
         <v>0</v>
       </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="26">
+      <c r="G10" s="2">
+        <f t="shared" si="2"/>
+        <v>27.500000000000004</v>
+      </c>
+      <c r="H10" s="4">
         <v>0.1</v>
       </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="27">
+      <c r="I10" s="2">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="J10" s="4">
         <v>0</v>
       </c>
-      <c r="K10" s="24"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="26"/>
+      <c r="K10" s="40">
+        <f t="shared" si="4"/>
+        <v>58.375</v>
+      </c>
+      <c r="L10" s="4">
+        <f t="shared" si="5"/>
+        <v>1.0822510822510845E-2</v>
+      </c>
+      <c r="M10" s="40">
+        <f t="shared" si="6"/>
+        <v>105.22620904836192</v>
+      </c>
+      <c r="N10" s="4">
+        <f t="shared" si="7"/>
+        <v>9.7305389221555849E-3</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F11" s="28"/>
+      <c r="F11" s="41"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M13" s="29"/>
+      <c r="M13" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/hw1/giladsol/Ass-1 Tables.xlsx
+++ b/hw1/giladsol/Ass-1 Tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Q1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
   <si>
     <t>AAA</t>
   </si>
@@ -100,17 +100,53 @@
   </si>
   <si>
     <t>Day 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a) explanation how we calculated AAA:
+value(AAA) = value(ETF)*0.4 = 268392000$
+shares(AAA) = value(AAA)/closePrice(AAA) = floor(11243904.4826142)=11243904 Units
+need to recalculed value(AAA) because we don’t own 0.48 shares
+value(AAA) = shares(AAA)*closePrice(AAA)  = 268391988.48$
+we calculate BBB and CCC the same
+cash = value(ETF) - (value(AAA) + value(BBB) + value(CCC)) = 48.22$
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b)At minute to the end of Monday, shares(XXX) and cash remain the same like at the end of Friday.
+mondayClosePrice(AAA) = fridayClosePrice(AAA) * ( 1 + mondayChange(AAA) ) = 24.429$
+do BBB and CCC the same.
+value(AAA) = shares(AAA)*closePrice(AAA) = 274672361.010$
+do BBB and CCC the same.
+value(ETF) = sum(values) + cash = 676374678.669$
+now lets see if A is still 40% from ETF:
+targetValue(AAA) = 0.4*value(ETF) = 270549871.467$ &lt; value(AAA)
+need to sell shares of AAA.
+targetShares(AAA) = floor(targetValue(AAA)/closePrice(AAA)) = 11075147 Units
+soldShares(AAA) = shares(AAA) - targetShares(AAA) = 168757 Units
+targetVaule(AAA) =  targetShares(AAA) * closePrice(AAA) = 270549870.848$
+do BBB and CCC the same.
+cash = valueOfMinuteBefore(ETF) - sum(targetValues) = 56.839$
+re calculate value(ETF) to double check:
+value(ETF) = sum(targetValues) + cash =  valueOfMinuteBefore(ETF)
+can we buy more shares with our cash and keep ETF balanced ? No.
+do Tuesday the same
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+  <numFmts count="9">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="170" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0.000"/>
+    <numFmt numFmtId="171" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="172" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="174" formatCode="0.0000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -187,7 +223,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -348,12 +384,92 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -400,9 +516,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -412,18 +525,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -460,13 +561,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -497,6 +598,93 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -801,37 +989,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:S10"/>
+  <dimension ref="A2:S37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="7"/>
-    <col min="2" max="2" width="9.19921875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.8984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.59765625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.8984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.8984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.8984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.59765625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.8984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.8984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.8984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.59765625" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.8984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.8984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.3984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.8984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.796875" style="7"/>
+    <col min="1" max="1" width="7.875" style="7"/>
+    <col min="2" max="2" width="9.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="7.875" style="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E2" s="7">
         <v>0.4</v>
       </c>
@@ -842,39 +1028,39 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="21" t="s">
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="21" t="s">
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="18"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="17"/>
       <c r="S3" s="13"/>
     </row>
-    <row r="4" spans="1:19" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="24" t="s">
+      <c r="B4" s="16"/>
+      <c r="C4" s="19" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="15" t="s">
@@ -886,10 +1072,10 @@
       <c r="F4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="H4" s="19" t="s">
         <v>9</v>
       </c>
       <c r="I4" s="15" t="s">
@@ -901,10 +1087,10 @@
       <c r="K4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="25" t="s">
+      <c r="L4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="24" t="s">
+      <c r="M4" s="19" t="s">
         <v>9</v>
       </c>
       <c r="N4" s="15" t="s">
@@ -916,325 +1102,619 @@
       <c r="P4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="25" t="s">
+      <c r="Q4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="R4" s="19" t="s">
+      <c r="R4" s="18" t="s">
         <v>13</v>
       </c>
       <c r="S4" s="14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="21">
         <v>23.87</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="38"/>
+      <c r="E5" s="33"/>
       <c r="F5" s="11"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="26">
+      <c r="G5" s="22"/>
+      <c r="H5" s="21">
         <v>84.65</v>
       </c>
       <c r="I5" s="1"/>
-      <c r="J5" s="38"/>
+      <c r="J5" s="33"/>
       <c r="K5" s="11"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="26">
+      <c r="L5" s="22"/>
+      <c r="M5" s="21">
         <v>33.200000000000003</v>
       </c>
       <c r="N5" s="1"/>
-      <c r="O5" s="38"/>
+      <c r="O5" s="33"/>
       <c r="P5" s="11"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="11">
+      <c r="Q5" s="22"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="57">
         <v>670980000</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="10"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="28"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="23"/>
       <c r="D6" s="13"/>
-      <c r="E6" s="37">
+      <c r="E6" s="49">
         <v>11243904</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="48">
         <f>E6*C5</f>
         <v>268391988.48000002</v>
       </c>
-      <c r="G6" s="29"/>
-      <c r="H6" s="28"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="23"/>
       <c r="I6" s="13"/>
-      <c r="J6" s="37">
+      <c r="J6" s="32">
         <v>2774282</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="48">
         <f>J6*H5</f>
         <v>234842971.30000001</v>
       </c>
-      <c r="L6" s="29"/>
-      <c r="M6" s="28"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="23"/>
       <c r="N6" s="13"/>
-      <c r="O6" s="37">
+      <c r="O6" s="32">
         <v>5052560</v>
       </c>
-      <c r="P6" s="16">
+      <c r="P6" s="48">
         <f>M5*O6</f>
         <v>167744992</v>
       </c>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="20">
+      <c r="Q6" s="24"/>
+      <c r="R6" s="68">
         <f>S5-(P6+K6+F6)</f>
         <v>48.220000028610229</v>
       </c>
-      <c r="S6" s="16">
+      <c r="S6" s="48">
         <f>P6+R6+K6+F6</f>
         <v>670980000</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="51">
         <f>C5*(1+D7)</f>
         <v>24.428558000000002</v>
       </c>
       <c r="D7" s="1">
         <v>2.3400000000000001E-2</v>
       </c>
-      <c r="E7" s="38">
+      <c r="E7" s="56">
         <f>E6-G6</f>
         <v>11243904</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="57">
         <f>C7*E7</f>
         <v>274672361.010432</v>
       </c>
-      <c r="G7" s="27">
+      <c r="G7" s="50">
         <f>E7 - FLOOR((E2*$S$7)/C7,1)</f>
         <v>168757</v>
       </c>
-      <c r="H7" s="26">
+      <c r="H7" s="52">
         <f>H5*(1+I7)</f>
         <v>86.114445000000018</v>
       </c>
       <c r="I7" s="1">
         <v>1.7299999999999999E-2</v>
       </c>
-      <c r="J7" s="38">
+      <c r="J7" s="33">
         <f>J6-L6</f>
         <v>2774282</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="57">
         <f>J7*H7</f>
         <v>238905754.70349005</v>
       </c>
-      <c r="L7" s="27">
+      <c r="L7" s="22">
         <f>J7 - FLOOR((J2*$S$7)/H7,1)</f>
         <v>25253</v>
       </c>
-      <c r="M7" s="26">
+      <c r="M7" s="51">
         <f>M5*(1+N7)</f>
         <v>32.220600000000005</v>
       </c>
       <c r="N7" s="1">
         <v>-2.9499999999999998E-2</v>
       </c>
-      <c r="O7" s="38">
+      <c r="O7" s="33">
         <f>O6-Q6</f>
         <v>5052560</v>
       </c>
-      <c r="P7" s="11">
+      <c r="P7" s="57">
         <f>M7*O7</f>
         <v>162796514.73600003</v>
       </c>
-      <c r="Q7" s="27">
+      <c r="Q7" s="22">
         <f>O7 - FLOOR((O2*$S$7)/M7,1)</f>
         <v>-195438</v>
       </c>
-      <c r="R7" s="36">
+      <c r="R7" s="69">
         <v>48.220000028610229</v>
       </c>
-      <c r="S7" s="11">
+      <c r="S7" s="57">
         <f t="shared" ref="S7:S10" si="0">P7+R7+K7+F7</f>
         <v>676374678.66992211</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="28"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="23"/>
       <c r="D8" s="13"/>
-      <c r="E8" s="37">
+      <c r="E8" s="49">
         <f>E7-G7</f>
         <v>11075147</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="48">
         <f>C7*E8</f>
         <v>270549870.84802604</v>
       </c>
-      <c r="G8" s="29"/>
-      <c r="H8" s="28"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="23"/>
       <c r="I8" s="13"/>
-      <c r="J8" s="37">
+      <c r="J8" s="32">
         <f>J7-L7</f>
         <v>2749029</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K8" s="48">
         <f>H7*J8</f>
         <v>236731106.62390506</v>
       </c>
-      <c r="L8" s="29"/>
-      <c r="M8" s="28"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="23"/>
       <c r="N8" s="13"/>
-      <c r="O8" s="37">
+      <c r="O8" s="32">
         <f>O7-Q7</f>
         <v>5247998</v>
       </c>
-      <c r="P8" s="16">
+      <c r="P8" s="48">
         <f>M7*O8</f>
         <v>169093644.35880002</v>
       </c>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="20">
+      <c r="Q8" s="24"/>
+      <c r="R8" s="68">
         <f>S7-P8-K8-F8</f>
         <v>56.83919095993042</v>
       </c>
-      <c r="S8" s="16">
+      <c r="S8" s="48">
         <f t="shared" si="0"/>
         <v>676374678.66992211</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="26">
-        <f t="shared" ref="C8:C9" si="1">C7*(1+D9)</f>
+      <c r="C9" s="51">
+        <f t="shared" ref="C9" si="1">C7*(1+D9)</f>
         <v>23.378130006000003</v>
       </c>
       <c r="D9" s="1">
         <v>-4.2999999999999997E-2</v>
       </c>
-      <c r="E9" s="38">
+      <c r="E9" s="56">
         <f>E8</f>
         <v>11075147</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="57">
         <f>C9*E9</f>
         <v>258916226.4015609</v>
       </c>
-      <c r="G9" s="27">
+      <c r="G9" s="50">
         <f>E9 - FLOOR((E2*$S$9)/C9,1)</f>
         <v>-387630</v>
       </c>
-      <c r="H9" s="26">
+      <c r="H9" s="52">
         <f>H7*(1+I9)</f>
         <v>87.208098451500007</v>
       </c>
       <c r="I9" s="1">
         <v>1.2699999999999999E-2</v>
       </c>
-      <c r="J9" s="38">
+      <c r="J9" s="33">
         <f>J8</f>
         <v>2749029</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="57">
         <f>J9*H9</f>
         <v>239737591.67802861</v>
       </c>
-      <c r="L9" s="27">
+      <c r="L9" s="22">
         <f>J9 - FLOOR((J2*$S$9)/H9,1)</f>
         <v>60277</v>
       </c>
-      <c r="M9" s="26">
+      <c r="M9" s="51">
         <f>M7*(1+N9)</f>
         <v>32.639467799999998</v>
       </c>
       <c r="N9" s="1">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="O9" s="38">
+      <c r="O9" s="33">
         <f>O8</f>
         <v>5247998</v>
       </c>
-      <c r="P9" s="11">
+      <c r="P9" s="57">
         <f>M9*O9</f>
         <v>171291861.73546439</v>
       </c>
-      <c r="Q9" s="27">
+      <c r="Q9" s="22">
         <f>O9 - FLOOR((O2*$S$9)/M9,1)</f>
         <v>116590</v>
       </c>
-      <c r="R9" s="36">
+      <c r="R9" s="69">
         <f>R8</f>
         <v>56.83919095993042</v>
       </c>
-      <c r="S9" s="11">
+      <c r="S9" s="57">
         <f t="shared" si="0"/>
         <v>669945736.6542449</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="37">
+      <c r="B10" s="30"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="53">
         <f>E9-G9</f>
         <v>11462777</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="54">
         <f>C9*E10</f>
         <v>267978290.93578669</v>
       </c>
-      <c r="G10" s="32"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="37">
+      <c r="G10" s="27"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="55">
         <f>J9-L9</f>
         <v>2688752</v>
       </c>
-      <c r="K10" s="16">
+      <c r="K10" s="54">
         <f>H9*J10</f>
         <v>234480949.12766755</v>
       </c>
-      <c r="L10" s="32"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="37">
+      <c r="L10" s="27"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="55">
         <f>O9-Q9</f>
         <v>5131408</v>
       </c>
-      <c r="P10" s="16">
+      <c r="P10" s="54">
         <f>M9*O10</f>
         <v>167486426.1846624</v>
       </c>
-      <c r="Q10" s="32"/>
-      <c r="R10" s="20">
+      <c r="Q10" s="27"/>
+      <c r="R10" s="68">
         <f>S9-P10-K10-F10</f>
         <v>70.406128257513046</v>
       </c>
-      <c r="S10" s="16">
+      <c r="S10" s="48">
         <f t="shared" si="0"/>
         <v>669945736.6542449</v>
       </c>
     </row>
+    <row r="11" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="61"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B13" s="62"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="64"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B14" s="62"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="47"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B15" s="62"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="64"/>
+      <c r="K15" s="70"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B16" s="62"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B17" s="62"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="71"/>
+    </row>
+    <row r="18" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="65"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="67"/>
+    </row>
+    <row r="19" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+    </row>
+    <row r="20" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="61"/>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B21" s="62"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="70"/>
+      <c r="R21" s="72"/>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B22" s="62"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="64"/>
+      <c r="R22" s="70"/>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B23" s="62"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="64"/>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B24" s="62"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="64"/>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B25" s="62"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="64"/>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B26" s="62"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="64"/>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B27" s="62"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="64"/>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B28" s="62"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="64"/>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B29" s="62"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="64"/>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B30" s="62"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="64"/>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B31" s="62"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="64"/>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B32" s="62"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="64"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B33" s="62"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="64"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B34" s="62"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="64"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B35" s="62"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="63"/>
+      <c r="J35" s="64"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B36" s="62"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="63"/>
+      <c r="G36" s="63"/>
+      <c r="H36" s="63"/>
+      <c r="I36" s="63"/>
+      <c r="J36" s="64"/>
+    </row>
+    <row r="37" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="65"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="66"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="66"/>
+      <c r="H37" s="66"/>
+      <c r="I37" s="66"/>
+      <c r="J37" s="67"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="H3:L3"/>
     <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="B12:I18"/>
+    <mergeCell ref="B20:J37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1245,46 +1725,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="7"/>
-    <col min="2" max="2" width="13.69921875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="11.59765625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="8.796875" style="7"/>
-    <col min="5" max="5" width="11.59765625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="8.796875" style="7"/>
-    <col min="7" max="7" width="11.69921875" style="7" customWidth="1"/>
-    <col min="8" max="8" width="10.8984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.09765625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="8.796875" style="7"/>
+    <col min="1" max="1" width="8.75" style="7"/>
+    <col min="2" max="2" width="13.75" style="7" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="8.75" style="7"/>
+    <col min="5" max="5" width="11.625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="8.75" style="7"/>
+    <col min="7" max="7" width="11.75" style="7" customWidth="1"/>
+    <col min="8" max="8" width="10.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.125" style="7" customWidth="1"/>
+    <col min="10" max="10" width="8.75" style="7"/>
     <col min="11" max="11" width="11" style="7" customWidth="1"/>
-    <col min="12" max="12" width="8.796875" style="7"/>
+    <col min="12" max="12" width="8.75" style="7"/>
     <col min="13" max="13" width="14" style="7" customWidth="1"/>
-    <col min="14" max="16384" width="8.796875" style="7"/>
+    <col min="14" max="16384" width="8.75" style="7"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43" t="s">
+      <c r="D4" s="38"/>
+      <c r="E4" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43" t="s">
+      <c r="F4" s="38"/>
+      <c r="G4" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43" t="s">
+      <c r="H4" s="38"/>
+      <c r="I4" s="38" t="s">
         <v>18</v>
       </c>
       <c r="J4" s="9"/>
@@ -1293,37 +1773,37 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:14" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="44" t="s">
+    <row r="5" spans="1:14" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="40">
         <v>7500000</v>
       </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45">
+      <c r="D5" s="40"/>
+      <c r="E5" s="40">
         <v>9000000</v>
       </c>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45">
+      <c r="F5" s="40"/>
+      <c r="G5" s="40">
         <v>6500000</v>
       </c>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45">
+      <c r="H5" s="40"/>
+      <c r="I5" s="40">
         <v>2500000</v>
       </c>
-      <c r="J5" s="46"/>
-      <c r="K5" s="47" t="s">
+      <c r="J5" s="41"/>
+      <c r="K5" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47" t="s">
+      <c r="L5" s="42"/>
+      <c r="M5" s="42" t="s">
         <v>21</v>
       </c>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B6" s="46"/>
+    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B6" s="41"/>
       <c r="C6" s="6" t="s">
         <v>22</v>
       </c>
@@ -1361,9 +1841,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="43" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="1">
@@ -1382,17 +1862,17 @@
         <v>30</v>
       </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="39">
+      <c r="K7" s="34">
         <f>AVERAGE(I7,G7,E7,C7)</f>
         <v>55</v>
       </c>
       <c r="L7" s="3"/>
-      <c r="M7" s="39">
+      <c r="M7" s="34">
         <v>100</v>
       </c>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
         <v>25</v>
       </c>
@@ -1424,7 +1904,7 @@
       <c r="J8" s="4">
         <v>0</v>
       </c>
-      <c r="K8" s="40">
+      <c r="K8" s="35">
         <f>AVERAGE(I8,G8,E8,C8)</f>
         <v>57</v>
       </c>
@@ -1432,7 +1912,7 @@
         <f>K8/K7 - 1</f>
         <v>3.6363636363636376E-2</v>
       </c>
-      <c r="M8" s="40">
+      <c r="M8" s="35">
         <f>($C$5*$C8+$E$5*$E8+$G$5*$G8+$I$5*$I8)/($C$7*$C$5+$E$7*$E$5+$G$7*$G$5+$I$7*$I$5)*100</f>
         <v>103.74414976599064</v>
       </c>
@@ -1441,8 +1921,8 @@
         <v>3.7441497659906453E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B9" s="48" t="s">
+    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B9" s="43" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="1">
@@ -1473,7 +1953,7 @@
       <c r="J9" s="1">
         <v>0.1</v>
       </c>
-      <c r="K9" s="39">
+      <c r="K9" s="34">
         <f t="shared" ref="K9:K10" si="4">AVERAGE(I9,G9,E9,C9)</f>
         <v>57.75</v>
       </c>
@@ -1481,7 +1961,7 @@
         <f t="shared" ref="L9:L10" si="5">K9/K8 - 1</f>
         <v>1.3157894736842035E-2</v>
       </c>
-      <c r="M9" s="39">
+      <c r="M9" s="34">
         <f t="shared" ref="M9:M10" si="6">($C$5*$C9+$E$5*$E9+$G$5*$G9+$I$5*$I9)/($C$7*$C$5+$E$7*$E$5+$G$7*$G$5+$I$7*$I$5)*100</f>
         <v>104.21216848673947</v>
       </c>
@@ -1490,7 +1970,7 @@
         <v>4.5112781954887993E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
         <v>27</v>
       </c>
@@ -1522,7 +2002,7 @@
       <c r="J10" s="4">
         <v>0</v>
       </c>
-      <c r="K10" s="40">
+      <c r="K10" s="35">
         <f t="shared" si="4"/>
         <v>58.375</v>
       </c>
@@ -1530,7 +2010,7 @@
         <f t="shared" si="5"/>
         <v>1.0822510822510845E-2</v>
       </c>
-      <c r="M10" s="40">
+      <c r="M10" s="35">
         <f t="shared" si="6"/>
         <v>105.22620904836192</v>
       </c>
@@ -1539,11 +2019,11 @@
         <v>9.7305389221555849E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F11" s="41"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M13" s="42"/>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F11" s="36"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M13" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1556,7 +2036,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/hw1/giladsol/Ass-1 Tables.xlsx
+++ b/hw1/giladsol/Ass-1 Tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Q1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
   <si>
     <t>AAA</t>
   </si>
@@ -132,6 +132,28 @@
 do Tuesday the same
 </t>
   </si>
+  <si>
+    <t>a) Price Weighted Average:
+Index = (PC(AA) + PC(BB) + PC(CC) + PC(DD) )/ 4
+ex day3: (88+85+25+33) / 4 = 57.75
+change = currentIndex / lastDayndex -1
+ex day2: 57 / 55 - 1 = 0.0363 = 3.63%</t>
+  </si>
+  <si>
+    <t>price close = PC
+Volume of Shares Outstanding = V</t>
+  </si>
+  <si>
+    <t>b) Market Capitalization Weighted Average:
+index = (sum from AA to DD ( PC(XX) * V(XX) ) ) /  (sum from AA to DD ( PCbase(XX) * Vbase(XX) ) )  * baseIndex
+ex day3= (88*7.5M + 85*9M +25*6.5M + 33*2.5M) / (80*7.5M + 85*9M + 25*6.5M +30*2.5M ) * 100 = 104.212
+change = currentIndex / lastDayndex -1</t>
+  </si>
+  <si>
+    <t>הסבר: ביום השני מדד ה MCWI עלה קצת יותר כי המניה AA שעלתה משקלה יחסית גדול במדד. במדד הדאו, אם המניה DD שהיא הכי "קטנה" הייתה עולה ב8$ (שקול ל10% בAA) במקום AA, 
+האינדקס היה נשאר 57.
+ביום השלישי, אכן DD עלתה 10%. מדד הדאו הגיב כרגיל ולא "עניין" אותו מי העלה את סך שווי המניות ב 3$. מדד ה MCWI, לא נתן לDD משקל גדול, ולכן השינוי במדד זה קטן מהדאו.</t>
+  </si>
 </sst>
 </file>
 
@@ -142,11 +164,11 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
-    <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0.000"/>
-    <numFmt numFmtId="171" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="172" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="174" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.000"/>
+    <numFmt numFmtId="169" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="170" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="171" formatCode="0.0000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -469,7 +491,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -570,16 +592,7 @@
     <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -600,51 +613,66 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -672,20 +700,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -991,7 +1046,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1033,27 +1088,27 @@
       <c r="B3" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="44" t="s">
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="44" t="s">
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="46"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="60"/>
       <c r="R3" s="17"/>
       <c r="S3" s="13"/>
     </row>
@@ -1139,7 +1194,7 @@
       <c r="P5" s="11"/>
       <c r="Q5" s="22"/>
       <c r="R5" s="31"/>
-      <c r="S5" s="57">
+      <c r="S5" s="51">
         <v>670980000</v>
       </c>
     </row>
@@ -1148,10 +1203,10 @@
       <c r="B6" s="30"/>
       <c r="C6" s="23"/>
       <c r="D6" s="13"/>
-      <c r="E6" s="49">
+      <c r="E6" s="43">
         <v>11243904</v>
       </c>
-      <c r="F6" s="48">
+      <c r="F6" s="42">
         <f>E6*C5</f>
         <v>268391988.48000002</v>
       </c>
@@ -1161,7 +1216,7 @@
       <c r="J6" s="32">
         <v>2774282</v>
       </c>
-      <c r="K6" s="48">
+      <c r="K6" s="42">
         <f>J6*H5</f>
         <v>234842971.30000001</v>
       </c>
@@ -1171,16 +1226,16 @@
       <c r="O6" s="32">
         <v>5052560</v>
       </c>
-      <c r="P6" s="48">
+      <c r="P6" s="42">
         <f>M5*O6</f>
         <v>167744992</v>
       </c>
       <c r="Q6" s="24"/>
-      <c r="R6" s="68">
+      <c r="R6" s="53">
         <f>S5-(P6+K6+F6)</f>
         <v>48.220000028610229</v>
       </c>
-      <c r="S6" s="48">
+      <c r="S6" s="42">
         <f>P6+R6+K6+F6</f>
         <v>670980000</v>
       </c>
@@ -1190,26 +1245,26 @@
       <c r="B7" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="51">
+      <c r="C7" s="45">
         <f>C5*(1+D7)</f>
         <v>24.428558000000002</v>
       </c>
       <c r="D7" s="1">
         <v>2.3400000000000001E-2</v>
       </c>
-      <c r="E7" s="56">
+      <c r="E7" s="50">
         <f>E6-G6</f>
         <v>11243904</v>
       </c>
-      <c r="F7" s="57">
+      <c r="F7" s="51">
         <f>C7*E7</f>
         <v>274672361.010432</v>
       </c>
-      <c r="G7" s="50">
+      <c r="G7" s="44">
         <f>E7 - FLOOR((E2*$S$7)/C7,1)</f>
         <v>168757</v>
       </c>
-      <c r="H7" s="52">
+      <c r="H7" s="46">
         <f>H5*(1+I7)</f>
         <v>86.114445000000018</v>
       </c>
@@ -1220,7 +1275,7 @@
         <f>J6-L6</f>
         <v>2774282</v>
       </c>
-      <c r="K7" s="57">
+      <c r="K7" s="51">
         <f>J7*H7</f>
         <v>238905754.70349005</v>
       </c>
@@ -1228,7 +1283,7 @@
         <f>J7 - FLOOR((J2*$S$7)/H7,1)</f>
         <v>25253</v>
       </c>
-      <c r="M7" s="51">
+      <c r="M7" s="45">
         <f>M5*(1+N7)</f>
         <v>32.220600000000005</v>
       </c>
@@ -1239,7 +1294,7 @@
         <f>O6-Q6</f>
         <v>5052560</v>
       </c>
-      <c r="P7" s="57">
+      <c r="P7" s="51">
         <f>M7*O7</f>
         <v>162796514.73600003</v>
       </c>
@@ -1247,10 +1302,10 @@
         <f>O7 - FLOOR((O2*$S$7)/M7,1)</f>
         <v>-195438</v>
       </c>
-      <c r="R7" s="69">
+      <c r="R7" s="54">
         <v>48.220000028610229</v>
       </c>
-      <c r="S7" s="57">
+      <c r="S7" s="51">
         <f t="shared" ref="S7:S10" si="0">P7+R7+K7+F7</f>
         <v>676374678.66992211</v>
       </c>
@@ -1260,11 +1315,11 @@
       <c r="B8" s="30"/>
       <c r="C8" s="23"/>
       <c r="D8" s="13"/>
-      <c r="E8" s="49">
+      <c r="E8" s="43">
         <f>E7-G7</f>
         <v>11075147</v>
       </c>
-      <c r="F8" s="48">
+      <c r="F8" s="42">
         <f>C7*E8</f>
         <v>270549870.84802604</v>
       </c>
@@ -1275,7 +1330,7 @@
         <f>J7-L7</f>
         <v>2749029</v>
       </c>
-      <c r="K8" s="48">
+      <c r="K8" s="42">
         <f>H7*J8</f>
         <v>236731106.62390506</v>
       </c>
@@ -1286,16 +1341,16 @@
         <f>O7-Q7</f>
         <v>5247998</v>
       </c>
-      <c r="P8" s="48">
+      <c r="P8" s="42">
         <f>M7*O8</f>
         <v>169093644.35880002</v>
       </c>
       <c r="Q8" s="24"/>
-      <c r="R8" s="68">
+      <c r="R8" s="53">
         <f>S7-P8-K8-F8</f>
         <v>56.83919095993042</v>
       </c>
-      <c r="S8" s="48">
+      <c r="S8" s="42">
         <f t="shared" si="0"/>
         <v>676374678.66992211</v>
       </c>
@@ -1305,26 +1360,26 @@
       <c r="B9" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="51">
+      <c r="C9" s="45">
         <f t="shared" ref="C9" si="1">C7*(1+D9)</f>
         <v>23.378130006000003</v>
       </c>
       <c r="D9" s="1">
         <v>-4.2999999999999997E-2</v>
       </c>
-      <c r="E9" s="56">
+      <c r="E9" s="50">
         <f>E8</f>
         <v>11075147</v>
       </c>
-      <c r="F9" s="57">
+      <c r="F9" s="51">
         <f>C9*E9</f>
         <v>258916226.4015609</v>
       </c>
-      <c r="G9" s="50">
+      <c r="G9" s="44">
         <f>E9 - FLOOR((E2*$S$9)/C9,1)</f>
         <v>-387630</v>
       </c>
-      <c r="H9" s="52">
+      <c r="H9" s="46">
         <f>H7*(1+I9)</f>
         <v>87.208098451500007</v>
       </c>
@@ -1335,7 +1390,7 @@
         <f>J8</f>
         <v>2749029</v>
       </c>
-      <c r="K9" s="57">
+      <c r="K9" s="51">
         <f>J9*H9</f>
         <v>239737591.67802861</v>
       </c>
@@ -1343,7 +1398,7 @@
         <f>J9 - FLOOR((J2*$S$9)/H9,1)</f>
         <v>60277</v>
       </c>
-      <c r="M9" s="51">
+      <c r="M9" s="45">
         <f>M7*(1+N9)</f>
         <v>32.639467799999998</v>
       </c>
@@ -1354,7 +1409,7 @@
         <f>O8</f>
         <v>5247998</v>
       </c>
-      <c r="P9" s="57">
+      <c r="P9" s="51">
         <f>M9*O9</f>
         <v>171291861.73546439</v>
       </c>
@@ -1362,11 +1417,11 @@
         <f>O9 - FLOOR((O2*$S$9)/M9,1)</f>
         <v>116590</v>
       </c>
-      <c r="R9" s="69">
+      <c r="R9" s="54">
         <f>R8</f>
         <v>56.83919095993042</v>
       </c>
-      <c r="S9" s="57">
+      <c r="S9" s="51">
         <f t="shared" si="0"/>
         <v>669945736.6542449</v>
       </c>
@@ -1376,337 +1431,337 @@
       <c r="B10" s="30"/>
       <c r="C10" s="25"/>
       <c r="D10" s="26"/>
-      <c r="E10" s="53">
+      <c r="E10" s="47">
         <f>E9-G9</f>
         <v>11462777</v>
       </c>
-      <c r="F10" s="54">
+      <c r="F10" s="48">
         <f>C9*E10</f>
         <v>267978290.93578669</v>
       </c>
       <c r="G10" s="27"/>
       <c r="H10" s="25"/>
       <c r="I10" s="26"/>
-      <c r="J10" s="55">
+      <c r="J10" s="49">
         <f>J9-L9</f>
         <v>2688752</v>
       </c>
-      <c r="K10" s="54">
+      <c r="K10" s="48">
         <f>H9*J10</f>
         <v>234480949.12766755</v>
       </c>
       <c r="L10" s="27"/>
       <c r="M10" s="25"/>
       <c r="N10" s="26"/>
-      <c r="O10" s="55">
+      <c r="O10" s="49">
         <f>O9-Q9</f>
         <v>5131408</v>
       </c>
-      <c r="P10" s="54">
+      <c r="P10" s="48">
         <f>M9*O10</f>
         <v>167486426.1846624</v>
       </c>
       <c r="Q10" s="27"/>
-      <c r="R10" s="68">
+      <c r="R10" s="53">
         <f>S9-P10-K10-F10</f>
         <v>70.406128257513046</v>
       </c>
-      <c r="S10" s="48">
+      <c r="S10" s="42">
         <f t="shared" si="0"/>
         <v>669945736.6542449</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="61"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="63"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B13" s="62"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="64"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="66"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B14" s="62"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="47"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="41"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B15" s="62"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="64"/>
-      <c r="K15" s="70"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="66"/>
+      <c r="K15" s="55"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B16" s="62"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B17" s="62"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="71"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="56"/>
     </row>
     <row r="18" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="65"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="67"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="69"/>
     </row>
     <row r="19" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="58"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
     </row>
     <row r="20" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="59" t="s">
+      <c r="B20" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="61"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="63"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B21" s="62"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="64"/>
-      <c r="K21" s="70"/>
-      <c r="R21" s="72"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="55"/>
+      <c r="R21" s="57"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B22" s="62"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="64"/>
-      <c r="R22" s="70"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="66"/>
+      <c r="R22" s="55"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B23" s="62"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="64"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="66"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B24" s="62"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="64"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="66"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B25" s="62"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="64"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="66"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B26" s="62"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="64"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="66"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B27" s="62"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="64"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="66"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B28" s="62"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="64"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="66"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B29" s="62"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="64"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="65"/>
+      <c r="J29" s="66"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B30" s="62"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="63"/>
-      <c r="G30" s="63"/>
-      <c r="H30" s="63"/>
-      <c r="I30" s="63"/>
-      <c r="J30" s="64"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="65"/>
+      <c r="I30" s="65"/>
+      <c r="J30" s="66"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B31" s="62"/>
-      <c r="C31" s="63"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="63"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="63"/>
-      <c r="J31" s="64"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="65"/>
+      <c r="I31" s="65"/>
+      <c r="J31" s="66"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B32" s="62"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="63"/>
-      <c r="J32" s="64"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="65"/>
+      <c r="H32" s="65"/>
+      <c r="I32" s="65"/>
+      <c r="J32" s="66"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B33" s="62"/>
-      <c r="C33" s="63"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="63"/>
-      <c r="F33" s="63"/>
-      <c r="G33" s="63"/>
-      <c r="H33" s="63"/>
-      <c r="I33" s="63"/>
-      <c r="J33" s="64"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="65"/>
+      <c r="I33" s="65"/>
+      <c r="J33" s="66"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B34" s="62"/>
-      <c r="C34" s="63"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="63"/>
-      <c r="F34" s="63"/>
-      <c r="G34" s="63"/>
-      <c r="H34" s="63"/>
-      <c r="I34" s="63"/>
-      <c r="J34" s="64"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="65"/>
+      <c r="H34" s="65"/>
+      <c r="I34" s="65"/>
+      <c r="J34" s="66"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B35" s="62"/>
-      <c r="C35" s="63"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="63"/>
-      <c r="F35" s="63"/>
-      <c r="G35" s="63"/>
-      <c r="H35" s="63"/>
-      <c r="I35" s="63"/>
-      <c r="J35" s="64"/>
+      <c r="B35" s="64"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="65"/>
+      <c r="E35" s="65"/>
+      <c r="F35" s="65"/>
+      <c r="G35" s="65"/>
+      <c r="H35" s="65"/>
+      <c r="I35" s="65"/>
+      <c r="J35" s="66"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B36" s="62"/>
-      <c r="C36" s="63"/>
-      <c r="D36" s="63"/>
-      <c r="E36" s="63"/>
-      <c r="F36" s="63"/>
-      <c r="G36" s="63"/>
-      <c r="H36" s="63"/>
-      <c r="I36" s="63"/>
-      <c r="J36" s="64"/>
+      <c r="B36" s="64"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="65"/>
+      <c r="H36" s="65"/>
+      <c r="I36" s="65"/>
+      <c r="J36" s="66"/>
     </row>
     <row r="37" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="65"/>
-      <c r="C37" s="66"/>
-      <c r="D37" s="66"/>
-      <c r="E37" s="66"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="66"/>
-      <c r="H37" s="66"/>
-      <c r="I37" s="66"/>
-      <c r="J37" s="67"/>
+      <c r="B37" s="67"/>
+      <c r="C37" s="68"/>
+      <c r="D37" s="68"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="68"/>
+      <c r="G37" s="68"/>
+      <c r="H37" s="68"/>
+      <c r="I37" s="68"/>
+      <c r="J37" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1723,10 +1778,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:N13"/>
+  <dimension ref="A4:N32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26:N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1749,22 +1804,22 @@
   <sheetData>
     <row r="4" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38" t="s">
+      <c r="D4" s="35"/>
+      <c r="E4" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38" t="s">
+      <c r="F4" s="35"/>
+      <c r="G4" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38" t="s">
+      <c r="H4" s="35"/>
+      <c r="I4" s="35" t="s">
         <v>18</v>
       </c>
       <c r="J4" s="9"/>
@@ -1774,36 +1829,36 @@
       <c r="N4" s="2"/>
     </row>
     <row r="5" spans="1:14" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="40">
+      <c r="C5" s="37">
         <v>7500000</v>
       </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40">
+      <c r="D5" s="37"/>
+      <c r="E5" s="37">
         <v>9000000</v>
       </c>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40">
+      <c r="F5" s="37"/>
+      <c r="G5" s="37">
         <v>6500000</v>
       </c>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40">
+      <c r="H5" s="37"/>
+      <c r="I5" s="37">
         <v>2500000</v>
       </c>
-      <c r="J5" s="41"/>
-      <c r="K5" s="42" t="s">
+      <c r="J5" s="38"/>
+      <c r="K5" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42" t="s">
+      <c r="L5" s="39"/>
+      <c r="M5" s="39" t="s">
         <v>21</v>
       </c>
       <c r="N5" s="2"/>
     </row>
     <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B6" s="41"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="6" t="s">
         <v>22</v>
       </c>
@@ -1843,34 +1898,34 @@
     </row>
     <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="76">
         <v>80</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="3"/>
       <c r="E7" s="1">
         <v>85</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="3"/>
       <c r="G7" s="1">
         <v>25</v>
       </c>
-      <c r="H7" s="1"/>
+      <c r="H7" s="3"/>
       <c r="I7" s="1">
         <v>30</v>
       </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="34">
+      <c r="J7" s="3"/>
+      <c r="K7" s="75">
         <f>AVERAGE(I7,G7,E7,C7)</f>
         <v>55</v>
       </c>
       <c r="L7" s="3"/>
-      <c r="M7" s="34">
+      <c r="M7" s="75">
         <v>100</v>
       </c>
-      <c r="N7" s="1"/>
+      <c r="N7" s="3"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
@@ -1904,15 +1959,15 @@
       <c r="J8" s="4">
         <v>0</v>
       </c>
-      <c r="K8" s="35">
+      <c r="K8" s="77">
         <f>AVERAGE(I8,G8,E8,C8)</f>
         <v>57</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="78">
         <f>K8/K7 - 1</f>
         <v>3.6363636363636376E-2</v>
       </c>
-      <c r="M8" s="35">
+      <c r="M8" s="77">
         <f>($C$5*$C8+$E$5*$E8+$G$5*$G8+$I$5*$I8)/($C$7*$C$5+$E$7*$E$5+$G$7*$G$5+$I$7*$I$5)*100</f>
         <v>103.74414976599064</v>
       </c>
@@ -1922,38 +1977,38 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="40" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" ref="C9:C10" si="0">C8*(1+D9)</f>
         <v>88</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="3">
         <v>0</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" ref="E9:E10" si="1">E8*(1+F9)</f>
         <v>85</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="3">
         <v>0</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" ref="G9:G10" si="2">G8*(1+H9)</f>
         <v>25</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="3">
         <v>0</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" ref="I9:I10" si="3">I8*(1+J9)</f>
         <v>33</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="3">
         <v>0.1</v>
       </c>
-      <c r="K9" s="34">
+      <c r="K9" s="75">
         <f t="shared" ref="K9:K10" si="4">AVERAGE(I9,G9,E9,C9)</f>
         <v>57.75</v>
       </c>
@@ -1961,7 +2016,7 @@
         <f t="shared" ref="L9:L10" si="5">K9/K8 - 1</f>
         <v>1.3157894736842035E-2</v>
       </c>
-      <c r="M9" s="34">
+      <c r="M9" s="75">
         <f t="shared" ref="M9:M10" si="6">($C$5*$C9+$E$5*$E9+$G$5*$G9+$I$5*$I9)/($C$7*$C$5+$E$7*$E$5+$G$7*$G$5+$I$7*$I$5)*100</f>
         <v>104.21216848673947</v>
       </c>
@@ -2002,15 +2057,15 @@
       <c r="J10" s="4">
         <v>0</v>
       </c>
-      <c r="K10" s="35">
+      <c r="K10" s="77">
         <f t="shared" si="4"/>
         <v>58.375</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="78">
         <f t="shared" si="5"/>
         <v>1.0822510822510845E-2</v>
       </c>
-      <c r="M10" s="35">
+      <c r="M10" s="77">
         <f t="shared" si="6"/>
         <v>105.22620904836192</v>
       </c>
@@ -2019,13 +2074,310 @@
         <v>9.7305389221555849E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="F11" s="36"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="M13" s="37"/>
+    <row r="11" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="81"/>
+      <c r="M11" s="80"/>
+      <c r="N11" s="79"/>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="71"/>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="72"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="74"/>
+    </row>
+    <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F14" s="34"/>
+    </row>
+    <row r="15" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="63"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B16" s="64"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="65"/>
+      <c r="M16" s="65"/>
+      <c r="N16" s="66"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B17" s="64"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="65"/>
+      <c r="M17" s="65"/>
+      <c r="N17" s="66"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B18" s="64"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="66"/>
+    </row>
+    <row r="19" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="67"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="68"/>
+      <c r="M19" s="68"/>
+      <c r="N19" s="69"/>
+    </row>
+    <row r="20" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="61" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="62"/>
+      <c r="N21" s="63"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B22" s="64"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="65"/>
+      <c r="M22" s="65"/>
+      <c r="N22" s="66"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="65"/>
+      <c r="N23" s="66"/>
+    </row>
+    <row r="24" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="67"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="68"/>
+      <c r="M24" s="68"/>
+      <c r="N24" s="69"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B26" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="82"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="82"/>
+      <c r="J26" s="82"/>
+      <c r="K26" s="82"/>
+      <c r="L26" s="82"/>
+      <c r="M26" s="82"/>
+      <c r="N26" s="82"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B27" s="82"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="82"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="82"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="82"/>
+      <c r="I27" s="82"/>
+      <c r="J27" s="82"/>
+      <c r="K27" s="82"/>
+      <c r="L27" s="82"/>
+      <c r="M27" s="82"/>
+      <c r="N27" s="82"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B28" s="82"/>
+      <c r="C28" s="82"/>
+      <c r="D28" s="82"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="82"/>
+      <c r="H28" s="82"/>
+      <c r="I28" s="82"/>
+      <c r="J28" s="82"/>
+      <c r="K28" s="82"/>
+      <c r="L28" s="82"/>
+      <c r="M28" s="82"/>
+      <c r="N28" s="82"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B29" s="82"/>
+      <c r="C29" s="82"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="82"/>
+      <c r="F29" s="82"/>
+      <c r="G29" s="82"/>
+      <c r="H29" s="82"/>
+      <c r="I29" s="82"/>
+      <c r="J29" s="82"/>
+      <c r="K29" s="82"/>
+      <c r="L29" s="82"/>
+      <c r="M29" s="82"/>
+      <c r="N29" s="82"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B30" s="82"/>
+      <c r="C30" s="82"/>
+      <c r="D30" s="82"/>
+      <c r="E30" s="82"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="82"/>
+      <c r="H30" s="82"/>
+      <c r="I30" s="82"/>
+      <c r="J30" s="82"/>
+      <c r="K30" s="82"/>
+      <c r="L30" s="82"/>
+      <c r="M30" s="82"/>
+      <c r="N30" s="82"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B31" s="82"/>
+      <c r="C31" s="82"/>
+      <c r="D31" s="82"/>
+      <c r="E31" s="82"/>
+      <c r="F31" s="82"/>
+      <c r="G31" s="82"/>
+      <c r="H31" s="82"/>
+      <c r="I31" s="82"/>
+      <c r="J31" s="82"/>
+      <c r="K31" s="82"/>
+      <c r="L31" s="82"/>
+      <c r="M31" s="82"/>
+      <c r="N31" s="82"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B32" s="82"/>
+      <c r="C32" s="82"/>
+      <c r="D32" s="82"/>
+      <c r="E32" s="82"/>
+      <c r="F32" s="82"/>
+      <c r="G32" s="82"/>
+      <c r="H32" s="82"/>
+      <c r="I32" s="82"/>
+      <c r="J32" s="82"/>
+      <c r="K32" s="82"/>
+      <c r="L32" s="82"/>
+      <c r="M32" s="82"/>
+      <c r="N32" s="82"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B12:N13"/>
+    <mergeCell ref="B15:N19"/>
+    <mergeCell ref="B21:N24"/>
+    <mergeCell ref="B26:N32"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/hw1/giladsol/Ass-1 Tables.xlsx
+++ b/hw1/giladsol/Ass-1 Tables.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
   <si>
     <t>AAA</t>
   </si>
@@ -153,6 +153,15 @@
     <t>הסבר: ביום השני מדד ה MCWI עלה קצת יותר כי המניה AA שעלתה משקלה יחסית גדול במדד. במדד הדאו, אם המניה DD שהיא הכי "קטנה" הייתה עולה ב8$ (שקול ל10% בAA) במקום AA, 
 האינדקס היה נשאר 57.
 ביום השלישי, אכן DD עלתה 10%. מדד הדאו הגיב כרגיל ולא "עניין" אותו מי העלה את סך שווי המניות ב 3$. מדד ה MCWI, לא נתן לDD משקל גדול, ולכן השינוי במדד זה קטן מהדאו.</t>
+  </si>
+  <si>
+    <t>גלעד עיני</t>
+  </si>
+  <si>
+    <t>מיכאל גורלניק</t>
+  </si>
+  <si>
+    <t>034774920</t>
   </si>
 </sst>
 </file>
@@ -225,7 +234,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -244,6 +253,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="20">
     <border>
@@ -491,7 +506,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -664,6 +679,27 @@
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -715,32 +751,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1046,7 +1067,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S37"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12:P13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1088,27 +1111,27 @@
       <c r="B3" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="58" t="s">
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="58" t="s">
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="60"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="67"/>
       <c r="R3" s="17"/>
       <c r="S3" s="13"/>
     </row>
@@ -1473,82 +1496,92 @@
     </row>
     <row r="11" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="63"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="70"/>
+      <c r="O12" s="84" t="s">
+        <v>36</v>
+      </c>
+      <c r="P12" s="85" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B13" s="64"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="66"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="73"/>
+      <c r="O13" s="85"/>
+      <c r="P13" s="85" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B14" s="64"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="66"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="73"/>
       <c r="J14" s="41"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B15" s="64"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="66"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="73"/>
       <c r="K15" s="55"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B16" s="64"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="66"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="73"/>
       <c r="J16" s="41"/>
       <c r="K16" s="41"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B17" s="64"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="66"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="73"/>
       <c r="J17" s="41"/>
       <c r="K17" s="56"/>
     </row>
     <row r="18" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="67"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="69"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="76"/>
     </row>
     <row r="19" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="52"/>
@@ -1561,207 +1594,207 @@
       <c r="I19" s="52"/>
     </row>
     <row r="20" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="61" t="s">
+      <c r="B20" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="63"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="70"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B21" s="64"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="66"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="73"/>
       <c r="K21" s="55"/>
       <c r="R21" s="57"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B22" s="64"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="66"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="73"/>
       <c r="R22" s="55"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="66"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="73"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B24" s="64"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="66"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="72"/>
+      <c r="J24" s="73"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B25" s="64"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="66"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="73"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B26" s="64"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="66"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="72"/>
+      <c r="J26" s="73"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B27" s="64"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="66"/>
+      <c r="B27" s="71"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="72"/>
+      <c r="J27" s="73"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B28" s="64"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="66"/>
+      <c r="B28" s="71"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="72"/>
+      <c r="J28" s="73"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B29" s="64"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="66"/>
+      <c r="B29" s="71"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="73"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B30" s="64"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="65"/>
-      <c r="H30" s="65"/>
-      <c r="I30" s="65"/>
-      <c r="J30" s="66"/>
+      <c r="B30" s="71"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="72"/>
+      <c r="I30" s="72"/>
+      <c r="J30" s="73"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B31" s="64"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="65"/>
-      <c r="I31" s="65"/>
-      <c r="J31" s="66"/>
+      <c r="B31" s="71"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="72"/>
+      <c r="J31" s="73"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B32" s="64"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="65"/>
-      <c r="G32" s="65"/>
-      <c r="H32" s="65"/>
-      <c r="I32" s="65"/>
-      <c r="J32" s="66"/>
+      <c r="B32" s="71"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="72"/>
+      <c r="I32" s="72"/>
+      <c r="J32" s="73"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B33" s="64"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="65"/>
-      <c r="G33" s="65"/>
-      <c r="H33" s="65"/>
-      <c r="I33" s="65"/>
-      <c r="J33" s="66"/>
+      <c r="B33" s="71"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="72"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="72"/>
+      <c r="J33" s="73"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B34" s="64"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="65"/>
-      <c r="F34" s="65"/>
-      <c r="G34" s="65"/>
-      <c r="H34" s="65"/>
-      <c r="I34" s="65"/>
-      <c r="J34" s="66"/>
+      <c r="B34" s="71"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="72"/>
+      <c r="J34" s="73"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B35" s="64"/>
-      <c r="C35" s="65"/>
-      <c r="D35" s="65"/>
-      <c r="E35" s="65"/>
-      <c r="F35" s="65"/>
-      <c r="G35" s="65"/>
-      <c r="H35" s="65"/>
-      <c r="I35" s="65"/>
-      <c r="J35" s="66"/>
+      <c r="B35" s="71"/>
+      <c r="C35" s="72"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="72"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="72"/>
+      <c r="J35" s="73"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B36" s="64"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="65"/>
-      <c r="E36" s="65"/>
-      <c r="F36" s="65"/>
-      <c r="G36" s="65"/>
-      <c r="H36" s="65"/>
-      <c r="I36" s="65"/>
-      <c r="J36" s="66"/>
+      <c r="B36" s="71"/>
+      <c r="C36" s="72"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="72"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="72"/>
+      <c r="H36" s="72"/>
+      <c r="I36" s="72"/>
+      <c r="J36" s="73"/>
     </row>
     <row r="37" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="67"/>
-      <c r="C37" s="68"/>
-      <c r="D37" s="68"/>
-      <c r="E37" s="68"/>
-      <c r="F37" s="68"/>
-      <c r="G37" s="68"/>
-      <c r="H37" s="68"/>
-      <c r="I37" s="68"/>
-      <c r="J37" s="69"/>
+      <c r="B37" s="74"/>
+      <c r="C37" s="75"/>
+      <c r="D37" s="75"/>
+      <c r="E37" s="75"/>
+      <c r="F37" s="75"/>
+      <c r="G37" s="75"/>
+      <c r="H37" s="75"/>
+      <c r="I37" s="75"/>
+      <c r="J37" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1778,10 +1811,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:N32"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:N32"/>
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1790,8 +1823,8 @@
     <col min="2" max="2" width="13.75" style="7" customWidth="1"/>
     <col min="3" max="3" width="11.625" style="7" customWidth="1"/>
     <col min="4" max="4" width="8.75" style="7"/>
-    <col min="5" max="5" width="11.625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="8.75" style="7"/>
+    <col min="5" max="5" width="12" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.875" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.75" style="7" customWidth="1"/>
     <col min="8" max="8" width="10.875" style="7" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.125" style="7" customWidth="1"/>
@@ -1802,6 +1835,20 @@
     <col min="14" max="16384" width="8.75" style="7"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F1" s="84" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="85" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F2" s="85"/>
+      <c r="G2" s="85" t="s">
+        <v>35</v>
+      </c>
+    </row>
     <row r="4" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
       <c r="B4" s="35" t="s">
@@ -1901,7 +1948,7 @@
       <c r="B7" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="76">
+      <c r="C7" s="59">
         <v>80</v>
       </c>
       <c r="D7" s="3"/>
@@ -1917,12 +1964,12 @@
         <v>30</v>
       </c>
       <c r="J7" s="3"/>
-      <c r="K7" s="75">
+      <c r="K7" s="58">
         <f>AVERAGE(I7,G7,E7,C7)</f>
         <v>55</v>
       </c>
       <c r="L7" s="3"/>
-      <c r="M7" s="75">
+      <c r="M7" s="58">
         <v>100</v>
       </c>
       <c r="N7" s="3"/>
@@ -1959,15 +2006,15 @@
       <c r="J8" s="4">
         <v>0</v>
       </c>
-      <c r="K8" s="77">
+      <c r="K8" s="60">
         <f>AVERAGE(I8,G8,E8,C8)</f>
         <v>57</v>
       </c>
-      <c r="L8" s="78">
+      <c r="L8" s="61">
         <f>K8/K7 - 1</f>
         <v>3.6363636363636376E-2</v>
       </c>
-      <c r="M8" s="77">
+      <c r="M8" s="60">
         <f>($C$5*$C8+$E$5*$E8+$G$5*$G8+$I$5*$I8)/($C$7*$C$5+$E$7*$E$5+$G$7*$G$5+$I$7*$I$5)*100</f>
         <v>103.74414976599064</v>
       </c>
@@ -2008,7 +2055,7 @@
       <c r="J9" s="3">
         <v>0.1</v>
       </c>
-      <c r="K9" s="75">
+      <c r="K9" s="58">
         <f t="shared" ref="K9:K10" si="4">AVERAGE(I9,G9,E9,C9)</f>
         <v>57.75</v>
       </c>
@@ -2016,7 +2063,7 @@
         <f t="shared" ref="L9:L10" si="5">K9/K8 - 1</f>
         <v>1.3157894736842035E-2</v>
       </c>
-      <c r="M9" s="75">
+      <c r="M9" s="58">
         <f t="shared" ref="M9:M10" si="6">($C$5*$C9+$E$5*$E9+$G$5*$G9+$I$5*$I9)/($C$7*$C$5+$E$7*$E$5+$G$7*$G$5+$I$7*$I$5)*100</f>
         <v>104.21216848673947</v>
       </c>
@@ -2057,15 +2104,15 @@
       <c r="J10" s="4">
         <v>0</v>
       </c>
-      <c r="K10" s="77">
+      <c r="K10" s="60">
         <f t="shared" si="4"/>
         <v>58.375</v>
       </c>
-      <c r="L10" s="78">
+      <c r="L10" s="61">
         <f t="shared" si="5"/>
         <v>1.0822510822510845E-2</v>
       </c>
-      <c r="M10" s="77">
+      <c r="M10" s="60">
         <f t="shared" si="6"/>
         <v>105.22620904836192</v>
       </c>
@@ -2077,299 +2124,299 @@
     <row r="11" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="79"/>
+      <c r="D11" s="62"/>
       <c r="E11" s="8"/>
-      <c r="F11" s="79"/>
+      <c r="F11" s="62"/>
       <c r="G11" s="8"/>
-      <c r="H11" s="79"/>
+      <c r="H11" s="62"/>
       <c r="I11" s="8"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="80"/>
-      <c r="L11" s="81"/>
-      <c r="M11" s="80"/>
-      <c r="N11" s="79"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="62"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="70"/>
-      <c r="N12" s="71"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="77"/>
+      <c r="K12" s="77"/>
+      <c r="L12" s="77"/>
+      <c r="M12" s="77"/>
+      <c r="N12" s="78"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="72"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="73"/>
-      <c r="L13" s="73"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="74"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="80"/>
+      <c r="K13" s="80"/>
+      <c r="L13" s="80"/>
+      <c r="M13" s="80"/>
+      <c r="N13" s="81"/>
     </row>
     <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F14" s="34"/>
     </row>
     <row r="15" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="62"/>
-      <c r="N15" s="63"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="69"/>
+      <c r="M15" s="69"/>
+      <c r="N15" s="70"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B16" s="64"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="65"/>
-      <c r="L16" s="65"/>
-      <c r="M16" s="65"/>
-      <c r="N16" s="66"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="73"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B17" s="64"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="65"/>
-      <c r="M17" s="65"/>
-      <c r="N17" s="66"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="72"/>
+      <c r="N17" s="73"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B18" s="64"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="65"/>
-      <c r="M18" s="65"/>
-      <c r="N18" s="66"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="72"/>
+      <c r="N18" s="73"/>
     </row>
     <row r="19" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="67"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="68"/>
-      <c r="L19" s="68"/>
-      <c r="M19" s="68"/>
-      <c r="N19" s="69"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="75"/>
+      <c r="K19" s="75"/>
+      <c r="L19" s="75"/>
+      <c r="M19" s="75"/>
+      <c r="N19" s="76"/>
     </row>
     <row r="20" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="61" t="s">
+      <c r="B21" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="62"/>
-      <c r="K21" s="62"/>
-      <c r="L21" s="62"/>
-      <c r="M21" s="62"/>
-      <c r="N21" s="63"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="69"/>
+      <c r="L21" s="69"/>
+      <c r="M21" s="69"/>
+      <c r="N21" s="70"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B22" s="64"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="65"/>
-      <c r="M22" s="65"/>
-      <c r="N22" s="66"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="72"/>
+      <c r="K22" s="72"/>
+      <c r="L22" s="72"/>
+      <c r="M22" s="72"/>
+      <c r="N22" s="73"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="65"/>
-      <c r="N23" s="66"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="72"/>
+      <c r="K23" s="72"/>
+      <c r="L23" s="72"/>
+      <c r="M23" s="72"/>
+      <c r="N23" s="73"/>
     </row>
     <row r="24" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="67"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="68"/>
-      <c r="L24" s="68"/>
-      <c r="M24" s="68"/>
-      <c r="N24" s="69"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="75"/>
+      <c r="J24" s="75"/>
+      <c r="K24" s="75"/>
+      <c r="L24" s="75"/>
+      <c r="M24" s="75"/>
+      <c r="N24" s="76"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B26" s="83" t="s">
+      <c r="B26" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="82"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="82"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="82"/>
-      <c r="I26" s="82"/>
-      <c r="J26" s="82"/>
-      <c r="K26" s="82"/>
-      <c r="L26" s="82"/>
-      <c r="M26" s="82"/>
-      <c r="N26" s="82"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="83"/>
+      <c r="G26" s="83"/>
+      <c r="H26" s="83"/>
+      <c r="I26" s="83"/>
+      <c r="J26" s="83"/>
+      <c r="K26" s="83"/>
+      <c r="L26" s="83"/>
+      <c r="M26" s="83"/>
+      <c r="N26" s="83"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B27" s="82"/>
-      <c r="C27" s="82"/>
-      <c r="D27" s="82"/>
-      <c r="E27" s="82"/>
-      <c r="F27" s="82"/>
-      <c r="G27" s="82"/>
-      <c r="H27" s="82"/>
-      <c r="I27" s="82"/>
-      <c r="J27" s="82"/>
-      <c r="K27" s="82"/>
-      <c r="L27" s="82"/>
-      <c r="M27" s="82"/>
-      <c r="N27" s="82"/>
+      <c r="B27" s="83"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="83"/>
+      <c r="G27" s="83"/>
+      <c r="H27" s="83"/>
+      <c r="I27" s="83"/>
+      <c r="J27" s="83"/>
+      <c r="K27" s="83"/>
+      <c r="L27" s="83"/>
+      <c r="M27" s="83"/>
+      <c r="N27" s="83"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B28" s="82"/>
-      <c r="C28" s="82"/>
-      <c r="D28" s="82"/>
-      <c r="E28" s="82"/>
-      <c r="F28" s="82"/>
-      <c r="G28" s="82"/>
-      <c r="H28" s="82"/>
-      <c r="I28" s="82"/>
-      <c r="J28" s="82"/>
-      <c r="K28" s="82"/>
-      <c r="L28" s="82"/>
-      <c r="M28" s="82"/>
-      <c r="N28" s="82"/>
+      <c r="B28" s="83"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="83"/>
+      <c r="E28" s="83"/>
+      <c r="F28" s="83"/>
+      <c r="G28" s="83"/>
+      <c r="H28" s="83"/>
+      <c r="I28" s="83"/>
+      <c r="J28" s="83"/>
+      <c r="K28" s="83"/>
+      <c r="L28" s="83"/>
+      <c r="M28" s="83"/>
+      <c r="N28" s="83"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B29" s="82"/>
-      <c r="C29" s="82"/>
-      <c r="D29" s="82"/>
-      <c r="E29" s="82"/>
-      <c r="F29" s="82"/>
-      <c r="G29" s="82"/>
-      <c r="H29" s="82"/>
-      <c r="I29" s="82"/>
-      <c r="J29" s="82"/>
-      <c r="K29" s="82"/>
-      <c r="L29" s="82"/>
-      <c r="M29" s="82"/>
-      <c r="N29" s="82"/>
+      <c r="B29" s="83"/>
+      <c r="C29" s="83"/>
+      <c r="D29" s="83"/>
+      <c r="E29" s="83"/>
+      <c r="F29" s="83"/>
+      <c r="G29" s="83"/>
+      <c r="H29" s="83"/>
+      <c r="I29" s="83"/>
+      <c r="J29" s="83"/>
+      <c r="K29" s="83"/>
+      <c r="L29" s="83"/>
+      <c r="M29" s="83"/>
+      <c r="N29" s="83"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B30" s="82"/>
-      <c r="C30" s="82"/>
-      <c r="D30" s="82"/>
-      <c r="E30" s="82"/>
-      <c r="F30" s="82"/>
-      <c r="G30" s="82"/>
-      <c r="H30" s="82"/>
-      <c r="I30" s="82"/>
-      <c r="J30" s="82"/>
-      <c r="K30" s="82"/>
-      <c r="L30" s="82"/>
-      <c r="M30" s="82"/>
-      <c r="N30" s="82"/>
+      <c r="B30" s="83"/>
+      <c r="C30" s="83"/>
+      <c r="D30" s="83"/>
+      <c r="E30" s="83"/>
+      <c r="F30" s="83"/>
+      <c r="G30" s="83"/>
+      <c r="H30" s="83"/>
+      <c r="I30" s="83"/>
+      <c r="J30" s="83"/>
+      <c r="K30" s="83"/>
+      <c r="L30" s="83"/>
+      <c r="M30" s="83"/>
+      <c r="N30" s="83"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B31" s="82"/>
-      <c r="C31" s="82"/>
-      <c r="D31" s="82"/>
-      <c r="E31" s="82"/>
-      <c r="F31" s="82"/>
-      <c r="G31" s="82"/>
-      <c r="H31" s="82"/>
-      <c r="I31" s="82"/>
-      <c r="J31" s="82"/>
-      <c r="K31" s="82"/>
-      <c r="L31" s="82"/>
-      <c r="M31" s="82"/>
-      <c r="N31" s="82"/>
+      <c r="B31" s="83"/>
+      <c r="C31" s="83"/>
+      <c r="D31" s="83"/>
+      <c r="E31" s="83"/>
+      <c r="F31" s="83"/>
+      <c r="G31" s="83"/>
+      <c r="H31" s="83"/>
+      <c r="I31" s="83"/>
+      <c r="J31" s="83"/>
+      <c r="K31" s="83"/>
+      <c r="L31" s="83"/>
+      <c r="M31" s="83"/>
+      <c r="N31" s="83"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B32" s="82"/>
-      <c r="C32" s="82"/>
-      <c r="D32" s="82"/>
-      <c r="E32" s="82"/>
-      <c r="F32" s="82"/>
-      <c r="G32" s="82"/>
-      <c r="H32" s="82"/>
-      <c r="I32" s="82"/>
-      <c r="J32" s="82"/>
-      <c r="K32" s="82"/>
-      <c r="L32" s="82"/>
-      <c r="M32" s="82"/>
-      <c r="N32" s="82"/>
+      <c r="B32" s="83"/>
+      <c r="C32" s="83"/>
+      <c r="D32" s="83"/>
+      <c r="E32" s="83"/>
+      <c r="F32" s="83"/>
+      <c r="G32" s="83"/>
+      <c r="H32" s="83"/>
+      <c r="I32" s="83"/>
+      <c r="J32" s="83"/>
+      <c r="K32" s="83"/>
+      <c r="L32" s="83"/>
+      <c r="M32" s="83"/>
+      <c r="N32" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2379,6 +2426,9 @@
     <mergeCell ref="B26:N32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="F1" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 

--- a/hw1/giladsol/Ass-1 Tables.xlsx
+++ b/hw1/giladsol/Ass-1 Tables.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Q1" sheetId="1" r:id="rId1"/>
     <sheet name="Q2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -167,15 +167,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="8">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="167" formatCode="0.000"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.000"/>
-    <numFmt numFmtId="169" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="170" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="171" formatCode="0.0000"/>
   </numFmts>
@@ -502,11 +501,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -583,9 +583,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -634,28 +631,13 @@
     <xf numFmtId="168" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="168" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -664,12 +646,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -698,6 +674,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -757,22 +739,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -821,7 +819,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -854,9 +852,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -889,6 +904,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1067,8 +1099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S37"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12:P13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1084,12 +1116,12 @@
     <col min="9" max="9" width="7.75" style="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.5" style="7" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.875" style="7" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.875" style="7" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7.75" style="7" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.875" style="7" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5" style="7" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13.5" style="7" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="16.5" style="7" bestFit="1" customWidth="1"/>
     <col min="20" max="16384" width="7.875" style="7"/>
@@ -1108,30 +1140,30 @@
     </row>
     <row r="3" spans="1:19" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="65" t="s">
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="65" t="s">
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="67"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="61"/>
       <c r="R3" s="17"/>
       <c r="S3" s="13"/>
     </row>
@@ -1192,609 +1224,611 @@
     </row>
     <row r="5" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="28" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="21">
         <v>23.87</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="33"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="32"/>
       <c r="F5" s="11"/>
       <c r="G5" s="22"/>
       <c r="H5" s="21">
         <v>84.65</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="33"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="32"/>
       <c r="K5" s="11"/>
       <c r="L5" s="22"/>
-      <c r="M5" s="21">
+      <c r="M5" s="42">
         <v>33.200000000000003</v>
       </c>
-      <c r="N5" s="1"/>
-      <c r="O5" s="33"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="32"/>
       <c r="P5" s="11"/>
       <c r="Q5" s="22"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="51">
+      <c r="R5" s="30"/>
+      <c r="S5" s="45">
         <v>670980000</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="10"/>
-      <c r="B6" s="30"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="23"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="43">
+      <c r="D6" s="79"/>
+      <c r="E6" s="31">
         <v>11243904</v>
       </c>
-      <c r="F6" s="42">
+      <c r="F6" s="41">
         <f>E6*C5</f>
         <v>268391988.48000002</v>
       </c>
       <c r="G6" s="24"/>
       <c r="H6" s="23"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="32">
+      <c r="I6" s="79"/>
+      <c r="J6" s="31">
         <v>2774282</v>
       </c>
-      <c r="K6" s="42">
+      <c r="K6" s="41">
         <f>J6*H5</f>
         <v>234842971.30000001</v>
       </c>
       <c r="L6" s="24"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="32">
+      <c r="M6" s="82"/>
+      <c r="N6" s="79"/>
+      <c r="O6" s="31">
         <v>5052560</v>
       </c>
-      <c r="P6" s="42">
+      <c r="P6" s="41">
         <f>M5*O6</f>
         <v>167744992</v>
       </c>
       <c r="Q6" s="24"/>
-      <c r="R6" s="53">
+      <c r="R6" s="83">
         <f>S5-(P6+K6+F6)</f>
         <v>48.220000028610229</v>
       </c>
-      <c r="S6" s="42">
+      <c r="S6" s="41">
         <f>P6+R6+K6+F6</f>
         <v>670980000</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="45">
+      <c r="C7" s="42">
         <f>C5*(1+D7)</f>
         <v>24.428558000000002</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="78">
         <v>2.3400000000000001E-2</v>
       </c>
-      <c r="E7" s="50">
+      <c r="E7" s="32">
         <f>E6-G6</f>
         <v>11243904</v>
       </c>
-      <c r="F7" s="51">
+      <c r="F7" s="45">
         <f>C7*E7</f>
         <v>274672361.010432</v>
       </c>
-      <c r="G7" s="44">
+      <c r="G7" s="81">
         <f>E7 - FLOOR((E2*$S$7)/C7,1)</f>
         <v>168757</v>
       </c>
-      <c r="H7" s="46">
+      <c r="H7" s="42">
         <f>H5*(1+I7)</f>
         <v>86.114445000000018</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="78">
         <v>1.7299999999999999E-2</v>
       </c>
-      <c r="J7" s="33">
+      <c r="J7" s="32">
         <f>J6-L6</f>
         <v>2774282</v>
       </c>
-      <c r="K7" s="51">
+      <c r="K7" s="45">
         <f>J7*H7</f>
         <v>238905754.70349005</v>
       </c>
-      <c r="L7" s="22">
+      <c r="L7" s="81">
         <f>J7 - FLOOR((J2*$S$7)/H7,1)</f>
         <v>25253</v>
       </c>
-      <c r="M7" s="45">
+      <c r="M7" s="42">
         <f>M5*(1+N7)</f>
         <v>32.220600000000005</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N7" s="78">
         <v>-2.9499999999999998E-2</v>
       </c>
-      <c r="O7" s="33">
+      <c r="O7" s="32">
         <f>O6-Q6</f>
         <v>5052560</v>
       </c>
-      <c r="P7" s="51">
+      <c r="P7" s="45">
         <f>M7*O7</f>
         <v>162796514.73600003</v>
       </c>
-      <c r="Q7" s="22">
+      <c r="Q7" s="81">
         <f>O7 - FLOOR((O2*$S$7)/M7,1)</f>
         <v>-195438</v>
       </c>
-      <c r="R7" s="54">
+      <c r="R7" s="30">
         <v>48.220000028610229</v>
       </c>
-      <c r="S7" s="51">
+      <c r="S7" s="45">
         <f t="shared" ref="S7:S10" si="0">P7+R7+K7+F7</f>
         <v>676374678.66992211</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="43">
+      <c r="B8" s="29"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="31">
         <f>E7-G7</f>
         <v>11075147</v>
       </c>
-      <c r="F8" s="42">
+      <c r="F8" s="41">
         <f>C7*E8</f>
         <v>270549870.84802604</v>
       </c>
       <c r="G8" s="24"/>
       <c r="H8" s="23"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="32">
+      <c r="I8" s="79"/>
+      <c r="J8" s="31">
         <f>J7-L7</f>
         <v>2749029</v>
       </c>
-      <c r="K8" s="42">
+      <c r="K8" s="41">
         <f>H7*J8</f>
         <v>236731106.62390506</v>
       </c>
       <c r="L8" s="24"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="32">
+      <c r="M8" s="82"/>
+      <c r="N8" s="79"/>
+      <c r="O8" s="31">
         <f>O7-Q7</f>
         <v>5247998</v>
       </c>
-      <c r="P8" s="42">
+      <c r="P8" s="41">
         <f>M7*O8</f>
         <v>169093644.35880002</v>
       </c>
       <c r="Q8" s="24"/>
-      <c r="R8" s="53">
+      <c r="R8" s="83">
         <f>S7-P8-K8-F8</f>
         <v>56.83919095993042</v>
       </c>
-      <c r="S8" s="42">
+      <c r="S8" s="41">
         <f t="shared" si="0"/>
         <v>676374678.66992211</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="45">
+      <c r="C9" s="42">
         <f t="shared" ref="C9" si="1">C7*(1+D9)</f>
         <v>23.378130006000003</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="78">
         <v>-4.2999999999999997E-2</v>
       </c>
-      <c r="E9" s="50">
+      <c r="E9" s="32">
         <f>E8</f>
         <v>11075147</v>
       </c>
-      <c r="F9" s="51">
+      <c r="F9" s="45">
         <f>C9*E9</f>
         <v>258916226.4015609</v>
       </c>
-      <c r="G9" s="44">
+      <c r="G9" s="81">
         <f>E9 - FLOOR((E2*$S$9)/C9,1)</f>
         <v>-387630</v>
       </c>
-      <c r="H9" s="46">
+      <c r="H9" s="42">
         <f>H7*(1+I9)</f>
         <v>87.208098451500007</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="78">
         <v>1.2699999999999999E-2</v>
       </c>
-      <c r="J9" s="33">
+      <c r="J9" s="32">
         <f>J8</f>
         <v>2749029</v>
       </c>
-      <c r="K9" s="51">
+      <c r="K9" s="45">
         <f>J9*H9</f>
         <v>239737591.67802861</v>
       </c>
-      <c r="L9" s="22">
+      <c r="L9" s="81">
         <f>J9 - FLOOR((J2*$S$9)/H9,1)</f>
         <v>60277</v>
       </c>
-      <c r="M9" s="45">
+      <c r="M9" s="42">
         <f>M7*(1+N9)</f>
         <v>32.639467799999998</v>
       </c>
-      <c r="N9" s="1">
+      <c r="N9" s="78">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="O9" s="33">
+      <c r="O9" s="32">
         <f>O8</f>
         <v>5247998</v>
       </c>
-      <c r="P9" s="51">
+      <c r="P9" s="45">
         <f>M9*O9</f>
         <v>171291861.73546439</v>
       </c>
-      <c r="Q9" s="22">
+      <c r="Q9" s="81">
         <f>O9 - FLOOR((O2*$S$9)/M9,1)</f>
         <v>116590</v>
       </c>
-      <c r="R9" s="54">
+      <c r="R9" s="30">
         <f>R8</f>
         <v>56.83919095993042</v>
       </c>
-      <c r="S9" s="51">
+      <c r="S9" s="45">
         <f t="shared" si="0"/>
         <v>669945736.6542449</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
-      <c r="B10" s="30"/>
+      <c r="B10" s="29"/>
       <c r="C10" s="25"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="47">
+      <c r="D10" s="80"/>
+      <c r="E10" s="44">
         <f>E9-G9</f>
         <v>11462777</v>
       </c>
-      <c r="F10" s="48">
+      <c r="F10" s="43">
         <f>C9*E10</f>
         <v>267978290.93578669</v>
       </c>
-      <c r="G10" s="27"/>
+      <c r="G10" s="26"/>
       <c r="H10" s="25"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="49">
+      <c r="I10" s="80"/>
+      <c r="J10" s="44">
         <f>J9-L9</f>
         <v>2688752</v>
       </c>
-      <c r="K10" s="48">
+      <c r="K10" s="43">
         <f>H9*J10</f>
         <v>234480949.12766755</v>
       </c>
-      <c r="L10" s="27"/>
+      <c r="L10" s="26"/>
       <c r="M10" s="25"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="49">
+      <c r="N10" s="80"/>
+      <c r="O10" s="44">
         <f>O9-Q9</f>
         <v>5131408</v>
       </c>
-      <c r="P10" s="48">
+      <c r="P10" s="43">
         <f>M9*O10</f>
         <v>167486426.1846624</v>
       </c>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="53">
+      <c r="Q10" s="26"/>
+      <c r="R10" s="83">
         <f>S9-P10-K10-F10</f>
         <v>70.406128257513046</v>
       </c>
-      <c r="S10" s="42">
+      <c r="S10" s="41">
         <f t="shared" si="0"/>
         <v>669945736.6542449</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="70"/>
-      <c r="O12" s="84" t="s">
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="64"/>
+      <c r="O12" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="P12" s="85" t="s">
+      <c r="P12" s="58" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B13" s="71"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="73"/>
-      <c r="O13" s="85"/>
-      <c r="P13" s="85" t="s">
+      <c r="B13" s="65"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="67"/>
+      <c r="O13" s="58">
+        <v>306555822</v>
+      </c>
+      <c r="P13" s="58" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B14" s="71"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="41"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="40"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B15" s="71"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="73"/>
-      <c r="K15" s="55"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="67"/>
+      <c r="K15" s="47"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B16" s="71"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="73"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B17" s="71"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="56"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="48"/>
     </row>
     <row r="18" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="74"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="76"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="70"/>
     </row>
     <row r="19" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="52"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
     </row>
     <row r="20" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="68" t="s">
+      <c r="B20" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="70"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="64"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B21" s="71"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="72"/>
-      <c r="J21" s="73"/>
-      <c r="K21" s="55"/>
-      <c r="R21" s="57"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="47"/>
+      <c r="R21" s="49"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B22" s="71"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="72"/>
-      <c r="J22" s="73"/>
-      <c r="R22" s="55"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="67"/>
+      <c r="R22" s="47"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B23" s="71"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="73"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="67"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B24" s="71"/>
-      <c r="C24" s="72"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="72"/>
-      <c r="J24" s="73"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="67"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B25" s="71"/>
-      <c r="C25" s="72"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="72"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="72"/>
-      <c r="J25" s="73"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="67"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B26" s="71"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="72"/>
-      <c r="J26" s="73"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="67"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B27" s="71"/>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="72"/>
-      <c r="J27" s="73"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="67"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B28" s="71"/>
-      <c r="C28" s="72"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="72"/>
-      <c r="H28" s="72"/>
-      <c r="I28" s="72"/>
-      <c r="J28" s="73"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="66"/>
+      <c r="J28" s="67"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B29" s="71"/>
-      <c r="C29" s="72"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="72"/>
-      <c r="H29" s="72"/>
-      <c r="I29" s="72"/>
-      <c r="J29" s="73"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="66"/>
+      <c r="I29" s="66"/>
+      <c r="J29" s="67"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B30" s="71"/>
-      <c r="C30" s="72"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="72"/>
-      <c r="F30" s="72"/>
-      <c r="G30" s="72"/>
-      <c r="H30" s="72"/>
-      <c r="I30" s="72"/>
-      <c r="J30" s="73"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="67"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B31" s="71"/>
-      <c r="C31" s="72"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="72"/>
-      <c r="J31" s="73"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="66"/>
+      <c r="J31" s="67"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B32" s="71"/>
-      <c r="C32" s="72"/>
-      <c r="D32" s="72"/>
-      <c r="E32" s="72"/>
-      <c r="F32" s="72"/>
-      <c r="G32" s="72"/>
-      <c r="H32" s="72"/>
-      <c r="I32" s="72"/>
-      <c r="J32" s="73"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="66"/>
+      <c r="H32" s="66"/>
+      <c r="I32" s="66"/>
+      <c r="J32" s="67"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B33" s="71"/>
-      <c r="C33" s="72"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="72"/>
-      <c r="F33" s="72"/>
-      <c r="G33" s="72"/>
-      <c r="H33" s="72"/>
-      <c r="I33" s="72"/>
-      <c r="J33" s="73"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="66"/>
+      <c r="H33" s="66"/>
+      <c r="I33" s="66"/>
+      <c r="J33" s="67"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B34" s="71"/>
-      <c r="C34" s="72"/>
-      <c r="D34" s="72"/>
-      <c r="E34" s="72"/>
-      <c r="F34" s="72"/>
-      <c r="G34" s="72"/>
-      <c r="H34" s="72"/>
-      <c r="I34" s="72"/>
-      <c r="J34" s="73"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="66"/>
+      <c r="G34" s="66"/>
+      <c r="H34" s="66"/>
+      <c r="I34" s="66"/>
+      <c r="J34" s="67"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B35" s="71"/>
-      <c r="C35" s="72"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="72"/>
-      <c r="J35" s="73"/>
+      <c r="B35" s="65"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="66"/>
+      <c r="G35" s="66"/>
+      <c r="H35" s="66"/>
+      <c r="I35" s="66"/>
+      <c r="J35" s="67"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B36" s="71"/>
-      <c r="C36" s="72"/>
-      <c r="D36" s="72"/>
-      <c r="E36" s="72"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="72"/>
-      <c r="H36" s="72"/>
-      <c r="I36" s="72"/>
-      <c r="J36" s="73"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="66"/>
+      <c r="H36" s="66"/>
+      <c r="I36" s="66"/>
+      <c r="J36" s="67"/>
     </row>
     <row r="37" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="74"/>
-      <c r="C37" s="75"/>
-      <c r="D37" s="75"/>
-      <c r="E37" s="75"/>
-      <c r="F37" s="75"/>
-      <c r="G37" s="75"/>
-      <c r="H37" s="75"/>
-      <c r="I37" s="75"/>
-      <c r="J37" s="76"/>
+      <c r="B37" s="68"/>
+      <c r="C37" s="69"/>
+      <c r="D37" s="69"/>
+      <c r="E37" s="69"/>
+      <c r="F37" s="69"/>
+      <c r="G37" s="69"/>
+      <c r="H37" s="69"/>
+      <c r="I37" s="69"/>
+      <c r="J37" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1806,6 +1840,9 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="O12" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -1813,8 +1850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26:N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1836,37 +1873,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="F1" s="84" t="s">
+      <c r="F1" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="85" t="s">
+      <c r="G1" s="58" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="F2" s="85"/>
-      <c r="G2" s="85" t="s">
+      <c r="F2" s="58"/>
+      <c r="G2" s="58" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35" t="s">
+      <c r="D4" s="34"/>
+      <c r="E4" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35" t="s">
+      <c r="F4" s="34"/>
+      <c r="G4" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35" t="s">
+      <c r="H4" s="34"/>
+      <c r="I4" s="34" t="s">
         <v>18</v>
       </c>
       <c r="J4" s="9"/>
@@ -1876,36 +1913,36 @@
       <c r="N4" s="2"/>
     </row>
     <row r="5" spans="1:14" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="37">
+      <c r="C5" s="36">
         <v>7500000</v>
       </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37">
+      <c r="D5" s="36"/>
+      <c r="E5" s="36">
         <v>9000000</v>
       </c>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37">
+      <c r="F5" s="36"/>
+      <c r="G5" s="36">
         <v>6500000</v>
       </c>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37">
+      <c r="H5" s="36"/>
+      <c r="I5" s="36">
         <v>2500000</v>
       </c>
-      <c r="J5" s="38"/>
-      <c r="K5" s="39" t="s">
+      <c r="J5" s="37"/>
+      <c r="K5" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39" t="s">
+      <c r="L5" s="38"/>
+      <c r="M5" s="38" t="s">
         <v>21</v>
       </c>
       <c r="N5" s="2"/>
     </row>
     <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B6" s="38"/>
+      <c r="B6" s="37"/>
       <c r="C6" s="6" t="s">
         <v>22</v>
       </c>
@@ -1945,10 +1982,10 @@
     </row>
     <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="59">
+      <c r="C7" s="51">
         <v>80</v>
       </c>
       <c r="D7" s="3"/>
@@ -1964,12 +2001,12 @@
         <v>30</v>
       </c>
       <c r="J7" s="3"/>
-      <c r="K7" s="58">
+      <c r="K7" s="50">
         <f>AVERAGE(I7,G7,E7,C7)</f>
         <v>55</v>
       </c>
       <c r="L7" s="3"/>
-      <c r="M7" s="58">
+      <c r="M7" s="50">
         <v>100</v>
       </c>
       <c r="N7" s="3"/>
@@ -2006,15 +2043,15 @@
       <c r="J8" s="4">
         <v>0</v>
       </c>
-      <c r="K8" s="60">
+      <c r="K8" s="52">
         <f>AVERAGE(I8,G8,E8,C8)</f>
         <v>57</v>
       </c>
-      <c r="L8" s="61">
+      <c r="L8" s="53">
         <f>K8/K7 - 1</f>
         <v>3.6363636363636376E-2</v>
       </c>
-      <c r="M8" s="60">
+      <c r="M8" s="52">
         <f>($C$5*$C8+$E$5*$E8+$G$5*$G8+$I$5*$I8)/($C$7*$C$5+$E$7*$E$5+$G$7*$G$5+$I$7*$I$5)*100</f>
         <v>103.74414976599064</v>
       </c>
@@ -2024,7 +2061,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="39" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="1">
@@ -2055,7 +2092,7 @@
       <c r="J9" s="3">
         <v>0.1</v>
       </c>
-      <c r="K9" s="58">
+      <c r="K9" s="50">
         <f t="shared" ref="K9:K10" si="4">AVERAGE(I9,G9,E9,C9)</f>
         <v>57.75</v>
       </c>
@@ -2063,7 +2100,7 @@
         <f t="shared" ref="L9:L10" si="5">K9/K8 - 1</f>
         <v>1.3157894736842035E-2</v>
       </c>
-      <c r="M9" s="58">
+      <c r="M9" s="50">
         <f t="shared" ref="M9:M10" si="6">($C$5*$C9+$E$5*$E9+$G$5*$G9+$I$5*$I9)/($C$7*$C$5+$E$7*$E$5+$G$7*$G$5+$I$7*$I$5)*100</f>
         <v>104.21216848673947</v>
       </c>
@@ -2104,15 +2141,15 @@
       <c r="J10" s="4">
         <v>0</v>
       </c>
-      <c r="K10" s="60">
+      <c r="K10" s="52">
         <f t="shared" si="4"/>
         <v>58.375</v>
       </c>
-      <c r="L10" s="61">
+      <c r="L10" s="53">
         <f t="shared" si="5"/>
         <v>1.0822510822510845E-2</v>
       </c>
-      <c r="M10" s="60">
+      <c r="M10" s="52">
         <f t="shared" si="6"/>
         <v>105.22620904836192</v>
       </c>
@@ -2124,299 +2161,299 @@
     <row r="11" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="62"/>
+      <c r="D11" s="54"/>
       <c r="E11" s="8"/>
-      <c r="F11" s="62"/>
+      <c r="F11" s="54"/>
       <c r="G11" s="8"/>
-      <c r="H11" s="62"/>
+      <c r="H11" s="54"/>
       <c r="I11" s="8"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="64"/>
-      <c r="M11" s="63"/>
-      <c r="N11" s="62"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="54"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="77"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="77"/>
-      <c r="I12" s="77"/>
-      <c r="J12" s="77"/>
-      <c r="K12" s="77"/>
-      <c r="L12" s="77"/>
-      <c r="M12" s="77"/>
-      <c r="N12" s="78"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="71"/>
+      <c r="N12" s="72"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="79"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="80"/>
-      <c r="I13" s="80"/>
-      <c r="J13" s="80"/>
-      <c r="K13" s="80"/>
-      <c r="L13" s="80"/>
-      <c r="M13" s="80"/>
-      <c r="N13" s="81"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="75"/>
     </row>
     <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F14" s="34"/>
+      <c r="F14" s="33"/>
     </row>
     <row r="15" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="68" t="s">
+      <c r="B15" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="69"/>
-      <c r="M15" s="69"/>
-      <c r="N15" s="70"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="64"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B16" s="71"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="72"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="72"/>
-      <c r="N16" s="73"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="66"/>
+      <c r="M16" s="66"/>
+      <c r="N16" s="67"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B17" s="71"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="72"/>
-      <c r="J17" s="72"/>
-      <c r="K17" s="72"/>
-      <c r="L17" s="72"/>
-      <c r="M17" s="72"/>
-      <c r="N17" s="73"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="66"/>
+      <c r="N17" s="67"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B18" s="71"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="72"/>
-      <c r="L18" s="72"/>
-      <c r="M18" s="72"/>
-      <c r="N18" s="73"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="66"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="67"/>
     </row>
     <row r="19" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="74"/>
-      <c r="C19" s="75"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="75"/>
-      <c r="K19" s="75"/>
-      <c r="L19" s="75"/>
-      <c r="M19" s="75"/>
-      <c r="N19" s="76"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="69"/>
+      <c r="N19" s="70"/>
     </row>
     <row r="20" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="68" t="s">
+      <c r="B21" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="69"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="69"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="69"/>
-      <c r="L21" s="69"/>
-      <c r="M21" s="69"/>
-      <c r="N21" s="70"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="63"/>
+      <c r="L21" s="63"/>
+      <c r="M21" s="63"/>
+      <c r="N21" s="64"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B22" s="71"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="72"/>
-      <c r="J22" s="72"/>
-      <c r="K22" s="72"/>
-      <c r="L22" s="72"/>
-      <c r="M22" s="72"/>
-      <c r="N22" s="73"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="66"/>
+      <c r="M22" s="66"/>
+      <c r="N22" s="67"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B23" s="71"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="72"/>
-      <c r="K23" s="72"/>
-      <c r="L23" s="72"/>
-      <c r="M23" s="72"/>
-      <c r="N23" s="73"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="66"/>
+      <c r="M23" s="66"/>
+      <c r="N23" s="67"/>
     </row>
     <row r="24" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="74"/>
-      <c r="C24" s="75"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="75"/>
-      <c r="I24" s="75"/>
-      <c r="J24" s="75"/>
-      <c r="K24" s="75"/>
-      <c r="L24" s="75"/>
-      <c r="M24" s="75"/>
-      <c r="N24" s="76"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="69"/>
+      <c r="N24" s="70"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B26" s="82" t="s">
+      <c r="B26" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="83"/>
-      <c r="D26" s="83"/>
-      <c r="E26" s="83"/>
-      <c r="F26" s="83"/>
-      <c r="G26" s="83"/>
-      <c r="H26" s="83"/>
-      <c r="I26" s="83"/>
-      <c r="J26" s="83"/>
-      <c r="K26" s="83"/>
-      <c r="L26" s="83"/>
-      <c r="M26" s="83"/>
-      <c r="N26" s="83"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="77"/>
+      <c r="J26" s="77"/>
+      <c r="K26" s="77"/>
+      <c r="L26" s="77"/>
+      <c r="M26" s="77"/>
+      <c r="N26" s="77"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B27" s="83"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="83"/>
-      <c r="E27" s="83"/>
-      <c r="F27" s="83"/>
-      <c r="G27" s="83"/>
-      <c r="H27" s="83"/>
-      <c r="I27" s="83"/>
-      <c r="J27" s="83"/>
-      <c r="K27" s="83"/>
-      <c r="L27" s="83"/>
-      <c r="M27" s="83"/>
-      <c r="N27" s="83"/>
+      <c r="B27" s="77"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="77"/>
+      <c r="I27" s="77"/>
+      <c r="J27" s="77"/>
+      <c r="K27" s="77"/>
+      <c r="L27" s="77"/>
+      <c r="M27" s="77"/>
+      <c r="N27" s="77"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B28" s="83"/>
-      <c r="C28" s="83"/>
-      <c r="D28" s="83"/>
-      <c r="E28" s="83"/>
-      <c r="F28" s="83"/>
-      <c r="G28" s="83"/>
-      <c r="H28" s="83"/>
-      <c r="I28" s="83"/>
-      <c r="J28" s="83"/>
-      <c r="K28" s="83"/>
-      <c r="L28" s="83"/>
-      <c r="M28" s="83"/>
-      <c r="N28" s="83"/>
+      <c r="B28" s="77"/>
+      <c r="C28" s="77"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="77"/>
+      <c r="H28" s="77"/>
+      <c r="I28" s="77"/>
+      <c r="J28" s="77"/>
+      <c r="K28" s="77"/>
+      <c r="L28" s="77"/>
+      <c r="M28" s="77"/>
+      <c r="N28" s="77"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B29" s="83"/>
-      <c r="C29" s="83"/>
-      <c r="D29" s="83"/>
-      <c r="E29" s="83"/>
-      <c r="F29" s="83"/>
-      <c r="G29" s="83"/>
-      <c r="H29" s="83"/>
-      <c r="I29" s="83"/>
-      <c r="J29" s="83"/>
-      <c r="K29" s="83"/>
-      <c r="L29" s="83"/>
-      <c r="M29" s="83"/>
-      <c r="N29" s="83"/>
+      <c r="B29" s="77"/>
+      <c r="C29" s="77"/>
+      <c r="D29" s="77"/>
+      <c r="E29" s="77"/>
+      <c r="F29" s="77"/>
+      <c r="G29" s="77"/>
+      <c r="H29" s="77"/>
+      <c r="I29" s="77"/>
+      <c r="J29" s="77"/>
+      <c r="K29" s="77"/>
+      <c r="L29" s="77"/>
+      <c r="M29" s="77"/>
+      <c r="N29" s="77"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B30" s="83"/>
-      <c r="C30" s="83"/>
-      <c r="D30" s="83"/>
-      <c r="E30" s="83"/>
-      <c r="F30" s="83"/>
-      <c r="G30" s="83"/>
-      <c r="H30" s="83"/>
-      <c r="I30" s="83"/>
-      <c r="J30" s="83"/>
-      <c r="K30" s="83"/>
-      <c r="L30" s="83"/>
-      <c r="M30" s="83"/>
-      <c r="N30" s="83"/>
+      <c r="B30" s="77"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="77"/>
+      <c r="H30" s="77"/>
+      <c r="I30" s="77"/>
+      <c r="J30" s="77"/>
+      <c r="K30" s="77"/>
+      <c r="L30" s="77"/>
+      <c r="M30" s="77"/>
+      <c r="N30" s="77"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B31" s="83"/>
-      <c r="C31" s="83"/>
-      <c r="D31" s="83"/>
-      <c r="E31" s="83"/>
-      <c r="F31" s="83"/>
-      <c r="G31" s="83"/>
-      <c r="H31" s="83"/>
-      <c r="I31" s="83"/>
-      <c r="J31" s="83"/>
-      <c r="K31" s="83"/>
-      <c r="L31" s="83"/>
-      <c r="M31" s="83"/>
-      <c r="N31" s="83"/>
+      <c r="B31" s="77"/>
+      <c r="C31" s="77"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="77"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="77"/>
+      <c r="I31" s="77"/>
+      <c r="J31" s="77"/>
+      <c r="K31" s="77"/>
+      <c r="L31" s="77"/>
+      <c r="M31" s="77"/>
+      <c r="N31" s="77"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B32" s="83"/>
-      <c r="C32" s="83"/>
-      <c r="D32" s="83"/>
-      <c r="E32" s="83"/>
-      <c r="F32" s="83"/>
-      <c r="G32" s="83"/>
-      <c r="H32" s="83"/>
-      <c r="I32" s="83"/>
-      <c r="J32" s="83"/>
-      <c r="K32" s="83"/>
-      <c r="L32" s="83"/>
-      <c r="M32" s="83"/>
-      <c r="N32" s="83"/>
+      <c r="B32" s="77"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="77"/>
+      <c r="H32" s="77"/>
+      <c r="I32" s="77"/>
+      <c r="J32" s="77"/>
+      <c r="K32" s="77"/>
+      <c r="L32" s="77"/>
+      <c r="M32" s="77"/>
+      <c r="N32" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="4">
